--- a/Database/DefineTable.xlsx
+++ b/Database/DefineTable.xlsx
@@ -2900,19 +2900,172 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2939,28 +3092,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2986,159 +3139,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3486,191 +3486,191 @@
   <sheetData>
     <row r="1" spans="2:53" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:53">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="156" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164" t="s">
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="167" t="s">
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="162" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="170" t="s">
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="164"/>
+      <c r="AI2" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="171"/>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="171"/>
-      <c r="AM2" s="171"/>
-      <c r="AN2" s="171"/>
-      <c r="AO2" s="172"/>
-      <c r="AP2" s="168" t="s">
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="132"/>
+      <c r="AM2" s="132"/>
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="165"/>
+      <c r="AP2" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="168"/>
-      <c r="AT2" s="169"/>
-      <c r="AU2" s="170">
+      <c r="AQ2" s="163"/>
+      <c r="AR2" s="163"/>
+      <c r="AS2" s="163"/>
+      <c r="AT2" s="164"/>
+      <c r="AU2" s="131">
         <v>42892</v>
       </c>
-      <c r="AV2" s="171"/>
-      <c r="AW2" s="171"/>
-      <c r="AX2" s="171"/>
-      <c r="AY2" s="171"/>
-      <c r="AZ2" s="171"/>
-      <c r="BA2" s="173"/>
+      <c r="AV2" s="132"/>
+      <c r="AW2" s="132"/>
+      <c r="AX2" s="132"/>
+      <c r="AY2" s="132"/>
+      <c r="AZ2" s="132"/>
+      <c r="BA2" s="133"/>
     </row>
     <row r="3" spans="2:53">
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="177" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180" t="s">
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137" t="s">
         <v>184</v>
       </c>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="182"/>
-      <c r="AC3" s="183" t="s">
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" s="184"/>
-      <c r="AE3" s="184"/>
-      <c r="AF3" s="184"/>
-      <c r="AG3" s="184"/>
-      <c r="AH3" s="185"/>
-      <c r="AI3" s="186"/>
-      <c r="AJ3" s="187"/>
-      <c r="AK3" s="187"/>
-      <c r="AL3" s="187"/>
-      <c r="AM3" s="187"/>
-      <c r="AN3" s="187"/>
-      <c r="AO3" s="188"/>
-      <c r="AP3" s="184" t="s">
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="141"/>
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="144"/>
+      <c r="AK3" s="144"/>
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="144"/>
+      <c r="AN3" s="144"/>
+      <c r="AO3" s="145"/>
+      <c r="AP3" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="AQ3" s="184"/>
-      <c r="AR3" s="184"/>
-      <c r="AS3" s="184"/>
-      <c r="AT3" s="185"/>
-      <c r="AU3" s="186"/>
-      <c r="AV3" s="187"/>
-      <c r="AW3" s="187"/>
-      <c r="AX3" s="187"/>
-      <c r="AY3" s="187"/>
-      <c r="AZ3" s="187"/>
-      <c r="BA3" s="189"/>
+      <c r="AQ3" s="141"/>
+      <c r="AR3" s="141"/>
+      <c r="AS3" s="141"/>
+      <c r="AT3" s="142"/>
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="144"/>
+      <c r="AW3" s="144"/>
+      <c r="AX3" s="144"/>
+      <c r="AY3" s="144"/>
+      <c r="AZ3" s="144"/>
+      <c r="BA3" s="146"/>
     </row>
     <row r="4" spans="2:53" ht="15.75" thickBot="1">
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="196" t="str">
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="169" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>ERD</v>
       </c>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="197"/>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="199"/>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="200"/>
-      <c r="AF4" s="200"/>
-      <c r="AG4" s="200"/>
-      <c r="AH4" s="201"/>
-      <c r="AI4" s="202"/>
-      <c r="AJ4" s="203"/>
-      <c r="AK4" s="203"/>
-      <c r="AL4" s="203"/>
-      <c r="AM4" s="203"/>
-      <c r="AN4" s="203"/>
-      <c r="AO4" s="204"/>
-      <c r="AP4" s="200"/>
-      <c r="AQ4" s="200"/>
-      <c r="AR4" s="200"/>
-      <c r="AS4" s="200"/>
-      <c r="AT4" s="201"/>
-      <c r="AU4" s="202"/>
-      <c r="AV4" s="203"/>
-      <c r="AW4" s="203"/>
-      <c r="AX4" s="203"/>
-      <c r="AY4" s="203"/>
-      <c r="AZ4" s="203"/>
-      <c r="BA4" s="205"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="170"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="170"/>
+      <c r="AA4" s="170"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="172"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="126"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="129"/>
+      <c r="AN4" s="129"/>
+      <c r="AO4" s="173"/>
+      <c r="AP4" s="126"/>
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="126"/>
+      <c r="AS4" s="126"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="129"/>
+      <c r="AX4" s="129"/>
+      <c r="AY4" s="129"/>
+      <c r="AZ4" s="129"/>
+      <c r="BA4" s="130"/>
     </row>
     <row r="7" spans="2:53">
       <c r="B7" t="s">
@@ -3679,6 +3679,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="AU2:BA2"/>
@@ -3688,16 +3697,7 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
     <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -3743,73 +3743,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="175"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="141"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="178"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="130"/>
+      <c r="H4" s="179"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="179"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="177" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="178"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="130"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="179"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="177" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="129"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="130"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="179"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE t_function(</v>
@@ -3817,41 +3817,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="133"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="184"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="187"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="138"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="189"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -4186,10 +4186,10 @@
         <v>48</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="126" t="s">
+      <c r="F31" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="127"/>
+      <c r="G31" s="181"/>
       <c r="H31" s="57" t="s">
         <v>56</v>
       </c>
@@ -4210,22 +4210,16 @@
         <v>48</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="126" t="s">
+      <c r="F34" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="127"/>
+      <c r="G34" s="181"/>
       <c r="H34" s="57" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -4234,6 +4228,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4278,73 +4278,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="175"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="141"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="178"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="130"/>
+      <c r="H4" s="179"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="179"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="178"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="130"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="179"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="177" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="129"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="130"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="179"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE t_permission(</v>
@@ -4352,41 +4352,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="133"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="184"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="187"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="138"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="189"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -4726,10 +4726,10 @@
         <v>48</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="126" t="s">
+      <c r="F31" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="127"/>
+      <c r="G31" s="181"/>
       <c r="H31" s="57" t="s">
         <v>56</v>
       </c>
@@ -4750,22 +4750,16 @@
         <v>48</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="126" t="s">
+      <c r="F34" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="127"/>
+      <c r="G34" s="181"/>
       <c r="H34" s="57" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -4774,6 +4768,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4818,73 +4818,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="175"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="141"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="178"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="130"/>
+      <c r="H4" s="179"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="179"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="178"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="130"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="179"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="177" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="129"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="130"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="179"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE t_group(</v>
@@ -4892,41 +4892,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="133"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="184"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="187"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="138"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="189"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5211,10 +5211,10 @@
         <v>48</v>
       </c>
       <c r="E29" s="56"/>
-      <c r="F29" s="126" t="s">
+      <c r="F29" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="127"/>
+      <c r="G29" s="181"/>
       <c r="H29" s="57" t="s">
         <v>56</v>
       </c>
@@ -5235,22 +5235,16 @@
         <v>48</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="126" t="s">
+      <c r="F32" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="127"/>
+      <c r="G32" s="181"/>
       <c r="H32" s="57" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D6:E6"/>
@@ -5259,6 +5253,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5303,73 +5303,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="175"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="141"/>
+      <c r="H3" s="176"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="178"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="130"/>
+      <c r="H4" s="179"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="179"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="129"/>
+      <c r="E6" s="178"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="128"/>
-      <c r="H6" s="130"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="179"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="177" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="129"/>
+      <c r="E7" s="178"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="130"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="179"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE t_user(</v>
@@ -5377,41 +5377,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="133"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="184"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="136"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="187"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="138"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="189"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5793,10 +5793,10 @@
         <v>48</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="126" t="s">
+      <c r="F33" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="127"/>
+      <c r="G33" s="181"/>
       <c r="H33" s="57" t="s">
         <v>56</v>
       </c>
@@ -5817,22 +5817,16 @@
         <v>48</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="126" t="s">
+      <c r="F36" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="127"/>
+      <c r="G36" s="181"/>
       <c r="H36" s="57" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="D6:E6"/>
@@ -5841,6 +5835,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5885,73 +5885,73 @@
       <c r="C3" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="157"/>
+      <c r="H3" s="192"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="B4" s="82"/>
       <c r="C4" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="194"/>
       <c r="F4" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="130"/>
+      <c r="H4" s="179"/>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="B5" s="82"/>
       <c r="C5" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="193" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="145"/>
+      <c r="E5" s="194"/>
       <c r="F5" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="146"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="195"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="B6" s="82"/>
       <c r="C6" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="145"/>
+      <c r="E6" s="194"/>
       <c r="F6" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="144"/>
-      <c r="H6" s="146"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="195"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="B7" s="82"/>
       <c r="C7" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="144" t="s">
+      <c r="D7" s="193" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="145"/>
+      <c r="E7" s="194"/>
       <c r="F7" s="85"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="146"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="195"/>
       <c r="L7" s="76" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE t_user_group(</v>
@@ -5959,41 +5959,41 @@
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="B8" s="86"/>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="198" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="149"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="200"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="86"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="152"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="202"/>
+      <c r="H9" s="203"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="86"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="152"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="203"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" thickBot="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="205"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" thickBot="1">
       <c r="B13" s="77" t="s">
@@ -6306,10 +6306,10 @@
         <v>164</v>
       </c>
       <c r="E30" s="124"/>
-      <c r="F30" s="142" t="s">
+      <c r="F30" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="G30" s="143"/>
+      <c r="G30" s="197"/>
       <c r="H30" s="125" t="s">
         <v>169</v>
       </c>
@@ -6330,22 +6330,16 @@
         <v>164</v>
       </c>
       <c r="E33" s="124"/>
-      <c r="F33" s="142" t="s">
+      <c r="F33" s="196" t="s">
         <v>171</v>
       </c>
-      <c r="G33" s="143"/>
+      <c r="G33" s="197"/>
       <c r="H33" s="125" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -6354,6 +6348,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Database/DefineTable.xlsx
+++ b/Database/DefineTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="188">
   <si>
     <r>
       <rPr>
@@ -423,9 +423,6 @@
   <si>
     <t>登録日/Ngày đăng ký</t>
     <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>toroku_ymd</t>
   </si>
   <si>
     <t>char(8)</t>
@@ -2900,6 +2897,90 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2912,15 +2993,12 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2963,94 +3041,10 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3060,12 +3054,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3092,13 +3080,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3108,12 +3102,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3139,6 +3127,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3486,208 +3483,199 @@
   <sheetData>
     <row r="1" spans="2:53" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:53">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="126" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="156" t="s">
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="138" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="141" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="162" t="s">
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="144" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="145"/>
+      <c r="AK2" s="145"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="145"/>
+      <c r="AN2" s="145"/>
+      <c r="AO2" s="146"/>
+      <c r="AP2" s="142" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ2" s="132"/>
-      <c r="AK2" s="132"/>
-      <c r="AL2" s="132"/>
-      <c r="AM2" s="132"/>
-      <c r="AN2" s="132"/>
-      <c r="AO2" s="165"/>
-      <c r="AP2" s="163" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="143"/>
+      <c r="AU2" s="144">
+        <v>42892</v>
+      </c>
+      <c r="AV2" s="145"/>
+      <c r="AW2" s="145"/>
+      <c r="AX2" s="145"/>
+      <c r="AY2" s="145"/>
+      <c r="AZ2" s="145"/>
+      <c r="BA2" s="160"/>
+    </row>
+    <row r="3" spans="2:53">
+      <c r="B3" s="129"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="AQ2" s="163"/>
-      <c r="AR2" s="163"/>
-      <c r="AS2" s="163"/>
-      <c r="AT2" s="164"/>
-      <c r="AU2" s="131">
-        <v>42892</v>
-      </c>
-      <c r="AV2" s="132"/>
-      <c r="AW2" s="132"/>
-      <c r="AX2" s="132"/>
-      <c r="AY2" s="132"/>
-      <c r="AZ2" s="132"/>
-      <c r="BA2" s="133"/>
-    </row>
-    <row r="3" spans="2:53">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="134" t="s">
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137" t="s">
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="167" t="s">
         <v>184</v>
       </c>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="140" t="s">
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="171"/>
+      <c r="AK3" s="171"/>
+      <c r="AL3" s="171"/>
+      <c r="AM3" s="171"/>
+      <c r="AN3" s="171"/>
+      <c r="AO3" s="172"/>
+      <c r="AP3" s="168" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="141"/>
-      <c r="AH3" s="142"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="144"/>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144"/>
-      <c r="AN3" s="144"/>
-      <c r="AO3" s="145"/>
-      <c r="AP3" s="141" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="141"/>
-      <c r="AS3" s="141"/>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="144"/>
-      <c r="AW3" s="144"/>
-      <c r="AX3" s="144"/>
-      <c r="AY3" s="144"/>
-      <c r="AZ3" s="144"/>
-      <c r="BA3" s="146"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168"/>
+      <c r="AT3" s="169"/>
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="171"/>
+      <c r="AW3" s="171"/>
+      <c r="AX3" s="171"/>
+      <c r="AY3" s="171"/>
+      <c r="AZ3" s="171"/>
+      <c r="BA3" s="173"/>
     </row>
     <row r="4" spans="2:53" ht="15.75" thickBot="1">
-      <c r="B4" s="153"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="169" t="str">
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="150" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>ERD</v>
       </c>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170"/>
-      <c r="AB4" s="171"/>
-      <c r="AC4" s="172"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="127"/>
-      <c r="AI4" s="128"/>
-      <c r="AJ4" s="129"/>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="173"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="127"/>
-      <c r="AU4" s="128"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="129"/>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="130"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="153"/>
+      <c r="AD4" s="154"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="155"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="157"/>
+      <c r="AM4" s="157"/>
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="158"/>
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="154"/>
+      <c r="AR4" s="154"/>
+      <c r="AS4" s="154"/>
+      <c r="AT4" s="155"/>
+      <c r="AU4" s="156"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="157"/>
+      <c r="AX4" s="157"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="157"/>
+      <c r="BA4" s="159"/>
     </row>
     <row r="7" spans="2:53">
       <c r="B7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="AU2:BA2"/>
@@ -3698,6 +3686,15 @@
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AU3:BA3"/>
     <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -3743,73 +3740,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="174" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="176"/>
+      <c r="G3" s="187" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="189"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="179"/>
+      <c r="G4" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="178"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="177" t="s">
+      <c r="D5" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="178"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="179"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="178"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="177" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="178"/>
+      <c r="D6" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="177"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="177"/>
-      <c r="H6" s="179"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="178"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="178"/>
+      <c r="D7" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="177"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="179"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="178"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE t_function(</v>
@@ -3817,41 +3814,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="184"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="181"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="184"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="187"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="184"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="189"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="186"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -3990,16 +3987,16 @@
         <v>35</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="32"/>
       <c r="L19" s="33" t="str">
@@ -4013,19 +4010,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="32"/>
       <c r="L20" s="33" t="str">
@@ -4039,13 +4036,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>42</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>34</v>
@@ -4063,13 +4060,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
@@ -4085,13 +4082,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
@@ -4107,13 +4104,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="39"/>
@@ -4131,7 +4128,7 @@
     </row>
     <row r="26" spans="2:12" ht="12.75" thickBot="1">
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -4139,15 +4136,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>47</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>48</v>
       </c>
       <c r="E27" s="44"/>
       <c r="F27" s="45"/>
       <c r="G27" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="46" t="s">
         <v>19</v>
@@ -4158,21 +4155,21 @@
         <v>1</v>
       </c>
       <c r="C28" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>50</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>51</v>
       </c>
       <c r="E28" s="50"/>
       <c r="F28" s="51"/>
       <c r="G28" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" s="52"/>
     </row>
     <row r="30" spans="2:12" ht="12.75" thickBot="1">
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="15" thickBot="1">
@@ -4180,23 +4177,23 @@
         <v>13</v>
       </c>
       <c r="C31" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="180" t="s">
+      <c r="G31" s="175"/>
+      <c r="H31" s="57" t="s">
         <v>55</v>
-      </c>
-      <c r="G31" s="181"/>
-      <c r="H31" s="57" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="12.75" thickBot="1">
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" thickBot="1">
@@ -4204,22 +4201,28 @@
         <v>13</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="180" t="s">
+      <c r="F34" s="174" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="175"/>
+      <c r="H34" s="57" t="s">
         <v>58</v>
-      </c>
-      <c r="G34" s="181"/>
-      <c r="H34" s="57" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -4228,12 +4231,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4278,73 +4275,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="174" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="176"/>
+      <c r="G3" s="187" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="189"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="179"/>
+      <c r="G4" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="178"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="177" t="s">
+      <c r="D5" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="178"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="179"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="178"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="177" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="178"/>
+      <c r="D6" s="176" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="177"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="177"/>
-      <c r="H6" s="179"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="178"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="177" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="178"/>
+      <c r="D7" s="176" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="177"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="179"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="178"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE t_permission(</v>
@@ -4352,41 +4349,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="184"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="181"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="184"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="187"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="184"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="189"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="186"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -4421,13 +4418,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="E15" s="59" t="s">
         <v>71</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>72</v>
       </c>
       <c r="F15" s="58" t="s">
         <v>23</v>
@@ -4436,7 +4433,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="20"/>
       <c r="L15" s="3" t="str">
@@ -4450,13 +4447,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="E16" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>76</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>34</v>
@@ -4475,13 +4472,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>78</v>
-      </c>
       <c r="E17" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>34</v>
@@ -4499,22 +4496,22 @@
         <v>4</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="E18" s="30" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H18" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4530,16 +4527,16 @@
         <v>35</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="32"/>
       <c r="L19" s="3" t="str">
@@ -4553,19 +4550,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="32"/>
       <c r="L20" s="3" t="str">
@@ -4579,13 +4576,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>42</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>34</v>
@@ -4603,13 +4600,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
@@ -4625,13 +4622,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
@@ -4647,13 +4644,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="39"/>
@@ -4671,7 +4668,7 @@
     </row>
     <row r="26" spans="2:12" ht="12.75" thickBot="1">
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -4679,15 +4676,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>47</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>48</v>
       </c>
       <c r="E27" s="44"/>
       <c r="F27" s="45"/>
       <c r="G27" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="46" t="s">
         <v>19</v>
@@ -4698,21 +4695,21 @@
         <v>1</v>
       </c>
       <c r="C28" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>82</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>83</v>
       </c>
       <c r="E28" s="50"/>
       <c r="F28" s="51"/>
       <c r="G28" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" s="52"/>
     </row>
     <row r="30" spans="2:12" ht="12.75" thickBot="1">
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="15" thickBot="1">
@@ -4720,23 +4717,23 @@
         <v>13</v>
       </c>
       <c r="C31" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="180" t="s">
+      <c r="G31" s="175"/>
+      <c r="H31" s="57" t="s">
         <v>55</v>
-      </c>
-      <c r="G31" s="181"/>
-      <c r="H31" s="57" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="12.75" thickBot="1">
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" thickBot="1">
@@ -4744,22 +4741,28 @@
         <v>13</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="180" t="s">
+      <c r="F34" s="174" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="175"/>
+      <c r="H34" s="57" t="s">
         <v>58</v>
-      </c>
-      <c r="G34" s="181"/>
-      <c r="H34" s="57" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -4768,12 +4771,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4787,8 +4784,8 @@
   </sheetPr>
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -4818,73 +4815,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="174" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="176"/>
+      <c r="G3" s="187" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="189"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="179"/>
+      <c r="G4" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="178"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="177" t="s">
+      <c r="D5" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="178"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="179"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="178"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="177" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="178"/>
+      <c r="D6" s="176" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="177"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="177"/>
-      <c r="H6" s="179"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="178"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="177" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="178"/>
+      <c r="D7" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="177"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="179"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="178"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE t_group(</v>
@@ -4892,41 +4889,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="184"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="181"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="184"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="187"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="184"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="189"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="186"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -4961,16 +4958,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>24</v>
@@ -4988,16 +4985,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="E16" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="F16" s="65" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>92</v>
       </c>
       <c r="G16" s="66"/>
       <c r="H16" s="67"/>
@@ -5012,24 +5009,24 @@
         <v>3</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="69" t="s">
         <v>36</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>37</v>
       </c>
       <c r="F17" s="69" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="67"/>
       <c r="L17" s="68" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    toroku_ymd char(8)  NOT NULL,</v>
+        <v xml:space="preserve">    register_ymd char(8)  NOT NULL,</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="68" customFormat="1">
@@ -5038,19 +5035,19 @@
         <v>4</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="69" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="67"/>
       <c r="L18" s="68" t="str">
@@ -5064,13 +5061,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="69" t="s">
         <v>34</v>
@@ -5088,13 +5085,13 @@
         <v>6</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="69"/>
       <c r="G20" s="66"/>
@@ -5110,13 +5107,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="69"/>
       <c r="G21" s="66"/>
@@ -5132,13 +5129,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="74"/>
@@ -5156,7 +5153,7 @@
     </row>
     <row r="24" spans="2:12" ht="12.75" thickBot="1">
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -5164,15 +5161,15 @@
         <v>13</v>
       </c>
       <c r="C25" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>48</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="45"/>
       <c r="G25" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="46" t="s">
         <v>19</v>
@@ -5183,21 +5180,21 @@
         <v>1</v>
       </c>
       <c r="C26" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>101</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>102</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
       <c r="G26" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H26" s="52"/>
     </row>
     <row r="28" spans="2:12" ht="12.75" thickBot="1">
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" thickBot="1">
@@ -5205,23 +5202,23 @@
         <v>13</v>
       </c>
       <c r="C29" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="180" t="s">
+      <c r="G29" s="175"/>
+      <c r="H29" s="57" t="s">
         <v>55</v>
-      </c>
-      <c r="G29" s="181"/>
-      <c r="H29" s="57" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="12.75" thickBot="1">
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="15" thickBot="1">
@@ -5229,22 +5226,28 @@
         <v>13</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="180" t="s">
+      <c r="F32" s="174" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="175"/>
+      <c r="H32" s="57" t="s">
         <v>58</v>
-      </c>
-      <c r="G32" s="181"/>
-      <c r="H32" s="57" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D6:E6"/>
@@ -5253,12 +5256,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5272,7 +5269,7 @@
   </sheetPr>
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -5303,73 +5300,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="188"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="174" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="176"/>
+      <c r="G3" s="187" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="189"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="179"/>
+      <c r="G4" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="178"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="177" t="s">
+      <c r="D5" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="178"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="179"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="178"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="177" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="178"/>
+      <c r="D6" s="176" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="177"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="177"/>
-      <c r="H6" s="179"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="178"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="177" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="178"/>
+      <c r="D7" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="177"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="179"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="178"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE t_user(</v>
@@ -5377,41 +5374,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="184"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="181"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="184"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="187"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="184"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="189"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="186"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5446,16 +5443,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>24</v>
@@ -5473,10 +5470,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>29</v>
@@ -5498,13 +5495,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>111</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>112</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -5520,13 +5517,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>114</v>
-      </c>
       <c r="E18" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
@@ -5542,20 +5539,20 @@
         <v>5</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="32" t="s">
         <v>118</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>119</v>
       </c>
       <c r="L19" s="33" t="str">
         <f t="shared" si="0"/>
@@ -5568,20 +5565,20 @@
         <v>6</v>
       </c>
       <c r="C20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>121</v>
-      </c>
       <c r="E20" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L20" s="28" t="str">
         <f t="shared" si="0"/>
@@ -5597,16 +5594,16 @@
         <v>35</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="32"/>
       <c r="L21" s="33" t="str">
@@ -5620,19 +5617,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>34</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="32"/>
       <c r="L22" s="33" t="str">
@@ -5646,13 +5643,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>42</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>34</v>
@@ -5670,13 +5667,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
@@ -5692,13 +5689,13 @@
         <v>11</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
@@ -5714,13 +5711,13 @@
         <v>12</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="39"/>
@@ -5738,7 +5735,7 @@
     </row>
     <row r="28" spans="2:12" ht="12.75" thickBot="1">
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -5746,15 +5743,15 @@
         <v>13</v>
       </c>
       <c r="C29" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="43" t="s">
         <v>47</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>48</v>
       </c>
       <c r="E29" s="44"/>
       <c r="F29" s="45"/>
       <c r="G29" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="46" t="s">
         <v>19</v>
@@ -5765,21 +5762,21 @@
         <v>1</v>
       </c>
       <c r="C30" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="49" t="s">
         <v>123</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>124</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="51"/>
       <c r="G30" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="52"/>
     </row>
     <row r="32" spans="2:12" ht="12.75" thickBot="1">
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" thickBot="1">
@@ -5787,23 +5784,23 @@
         <v>13</v>
       </c>
       <c r="C33" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="180" t="s">
+      <c r="G33" s="175"/>
+      <c r="H33" s="57" t="s">
         <v>55</v>
-      </c>
-      <c r="G33" s="181"/>
-      <c r="H33" s="57" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="12.75" thickBot="1">
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" thickBot="1">
@@ -5811,22 +5808,28 @@
         <v>13</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="180" t="s">
+      <c r="F36" s="174" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="175"/>
+      <c r="H36" s="57" t="s">
         <v>58</v>
-      </c>
-      <c r="G36" s="181"/>
-      <c r="H36" s="57" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="D6:E6"/>
@@ -5835,12 +5838,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5877,81 +5874,81 @@
   <sheetData>
     <row r="2" spans="1:12" ht="12.75" thickBot="1">
       <c r="B2" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75">
       <c r="B3" s="79"/>
       <c r="C3" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="203"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="190" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="192"/>
+      <c r="G3" s="203" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="205"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="B4" s="82"/>
       <c r="C4" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="192"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="179"/>
+      <c r="G4" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="178"/>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="B5" s="82"/>
       <c r="C5" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="193" t="s">
+      <c r="E5" s="193"/>
+      <c r="F5" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="194"/>
-      <c r="F5" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="193"/>
-      <c r="H5" s="195"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="194"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="B6" s="82"/>
       <c r="C6" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="192" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="193"/>
+      <c r="F6" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="193" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="194"/>
-      <c r="F6" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="193"/>
-      <c r="H6" s="195"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="194"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="B7" s="82"/>
       <c r="C7" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="193" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="194"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="85"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="195"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="194"/>
       <c r="L7" s="76" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE t_user_group(</v>
@@ -5959,68 +5956,68 @@
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="B8" s="86"/>
-      <c r="C8" s="198" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="200"/>
+      <c r="C8" s="195" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="86"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="203"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="200"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="86"/>
-      <c r="C10" s="202"/>
-      <c r="D10" s="202"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="203"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="200"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" thickBot="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="205"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="202"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" thickBot="1">
       <c r="B13" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="D14" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="E14" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="F14" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="G14" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="H14" s="89" t="s">
         <v>145</v>
-      </c>
-      <c r="H14" s="89" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6029,13 +6026,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="92" t="s">
-        <v>148</v>
-      </c>
       <c r="E15" s="93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>23</v>
@@ -6044,11 +6041,11 @@
         <v>24</v>
       </c>
       <c r="H15" s="95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I15" s="96"/>
       <c r="K15" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L15" s="76" t="str">
         <f t="shared" ref="L15:L22" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
@@ -6061,13 +6058,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="97" t="s">
-        <v>152</v>
-      </c>
       <c r="E16" s="97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="98" t="s">
         <v>34</v>
@@ -6088,13 +6085,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="98" t="s">
         <v>34</v>
@@ -6113,19 +6110,19 @@
         <v>4</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="97" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H18" s="101"/>
       <c r="L18" s="76" t="str">
@@ -6139,19 +6136,19 @@
         <v>5</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="97" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H19" s="101"/>
       <c r="L19" s="76" t="str">
@@ -6165,19 +6162,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="97" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H20" s="101"/>
       <c r="L20" s="76" t="str">
@@ -6191,13 +6188,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="97"/>
       <c r="G21" s="100"/>
@@ -6213,13 +6210,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="97"/>
       <c r="G22" s="100"/>
@@ -6235,13 +6232,13 @@
         <v>9</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="105"/>
       <c r="G23" s="107"/>
@@ -6259,26 +6256,26 @@
     </row>
     <row r="25" spans="2:12" ht="12.75" thickBot="1">
       <c r="B25" s="77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="111" t="s">
         <v>163</v>
-      </c>
-      <c r="D26" s="111" t="s">
-        <v>164</v>
       </c>
       <c r="E26" s="112"/>
       <c r="F26" s="113"/>
       <c r="G26" s="110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H26" s="114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="12.75" thickBot="1">
@@ -6292,54 +6289,60 @@
     </row>
     <row r="29" spans="2:12" ht="12.75" thickBot="1">
       <c r="B29" s="77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="16.5" thickBot="1">
       <c r="B30" s="121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="122" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="124"/>
+      <c r="F30" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="123" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="124"/>
-      <c r="F30" s="196" t="s">
+      <c r="G30" s="191"/>
+      <c r="H30" s="125" t="s">
         <v>168</v>
-      </c>
-      <c r="G30" s="197"/>
-      <c r="H30" s="125" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="12.75" thickBot="1">
       <c r="B32" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="16.5" thickBot="1">
       <c r="B33" s="121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" s="122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" s="123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="124"/>
-      <c r="F33" s="196" t="s">
+      <c r="F33" s="190" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="191"/>
+      <c r="H33" s="125" t="s">
         <v>171</v>
-      </c>
-      <c r="G33" s="197"/>
-      <c r="H33" s="125" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -6348,12 +6351,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Database/DefineTable.xlsx
+++ b/Database/DefineTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="6" r:id="rId1"/>
@@ -13,6 +13,12 @@
     <sheet name="group" sheetId="3" r:id="rId4"/>
     <sheet name="user" sheetId="4" r:id="rId5"/>
     <sheet name="user_group" sheetId="5" r:id="rId6"/>
+    <sheet name="room_type" sheetId="8" r:id="rId7"/>
+    <sheet name="room" sheetId="7" r:id="rId8"/>
+    <sheet name="status" sheetId="9" r:id="rId9"/>
+    <sheet name="reservation" sheetId="10" r:id="rId10"/>
+    <sheet name="reservation_detail" sheetId="11" r:id="rId11"/>
+    <sheet name="guest" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ERD!$A$1:$BB$38</definedName>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="237">
   <si>
     <r>
       <rPr>
@@ -1179,10 +1185,6 @@
     <t>物理エンティティ名</t>
   </si>
   <si>
-    <t>t_user_group</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>備考</t>
     <phoneticPr fontId="0"/>
   </si>
@@ -1329,18 +1331,6 @@
   </si>
   <si>
     <t>ログインユーザー.ユーザー名称</t>
-  </si>
-  <si>
-    <t>t_function</t>
-  </si>
-  <si>
-    <t>t_permission</t>
-  </si>
-  <si>
-    <t>t_group</t>
-  </si>
-  <si>
-    <t>t_user</t>
   </si>
   <si>
     <t>public.user_group</t>
@@ -1440,12 +1430,174 @@
   <si>
     <t>1.Setting quyền hạn</t>
   </si>
+  <si>
+    <t>HoangVT</t>
+  </si>
+  <si>
+    <t>2017/7/7</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>room_number</t>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>numeric(11,2)</t>
+  </si>
+  <si>
+    <t>tbl_room_type</t>
+  </si>
+  <si>
+    <t>tbl_room</t>
+  </si>
+  <si>
+    <t>tbl_user_group</t>
+  </si>
+  <si>
+    <t>tbl_user</t>
+  </si>
+  <si>
+    <t>tbl_group</t>
+  </si>
+  <si>
+    <t>tbl_permission</t>
+  </si>
+  <si>
+    <t>tbl_function</t>
+  </si>
+  <si>
+    <t>status_name</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>tbl_reservation</t>
+  </si>
+  <si>
+    <t>check_in</t>
+  </si>
+  <si>
+    <t>check_out</t>
+  </si>
+  <si>
+    <t>number_of_room</t>
+  </si>
+  <si>
+    <t>number_of_adult</t>
+  </si>
+  <si>
+    <t>number_of_children</t>
+  </si>
+  <si>
+    <t>create_ymd</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+  </si>
+  <si>
+    <t>tbl_reservation_detail</t>
+  </si>
+  <si>
+    <t>Yes(PK)</t>
+  </si>
+  <si>
+    <t>guest_id</t>
+  </si>
+  <si>
+    <t>tbl_guest</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>identity_card</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>company_phone</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+  </si>
+  <si>
+    <t>tbl__status</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>status_type</t>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+  </si>
+  <si>
+    <t>room_type_id</t>
+  </si>
+  <si>
+    <t>reservation_id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,6 +1775,18 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1656,7 +1820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -2515,12 +2679,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2897,6 +3196,150 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="69" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="70" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2945,18 +3388,6 @@
     <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2981,79 +3412,31 @@
     <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3080,28 +3463,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3128,13 +3511,49 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3472,7 +3891,7 @@
   </sheetPr>
   <dimension ref="B1:BA7"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -3483,199 +3902,208 @@
   <sheetData>
     <row r="1" spans="2:53" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:53">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="174" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="183" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="186" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="187"/>
+      <c r="Y2" s="187"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="187"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="189" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="156" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="157"/>
+      <c r="AO2" s="190"/>
+      <c r="AP2" s="172" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ2" s="172"/>
+      <c r="AR2" s="172"/>
+      <c r="AS2" s="172"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="156">
+        <v>42892</v>
+      </c>
+      <c r="AV2" s="157"/>
+      <c r="AW2" s="157"/>
+      <c r="AX2" s="157"/>
+      <c r="AY2" s="157"/>
+      <c r="AZ2" s="157"/>
+      <c r="BA2" s="158"/>
+    </row>
+    <row r="3" spans="2:53">
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="159" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="162" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="135" t="s">
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="138" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="141" t="s">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="169"/>
+      <c r="AK3" s="169"/>
+      <c r="AL3" s="169"/>
+      <c r="AM3" s="169"/>
+      <c r="AN3" s="169"/>
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="166" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="145"/>
-      <c r="AK2" s="145"/>
-      <c r="AL2" s="145"/>
-      <c r="AM2" s="145"/>
-      <c r="AN2" s="145"/>
-      <c r="AO2" s="146"/>
-      <c r="AP2" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="144">
-        <v>42892</v>
-      </c>
-      <c r="AV2" s="145"/>
-      <c r="AW2" s="145"/>
-      <c r="AX2" s="145"/>
-      <c r="AY2" s="145"/>
-      <c r="AZ2" s="145"/>
-      <c r="BA2" s="160"/>
-    </row>
-    <row r="3" spans="2:53">
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="161" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="162"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="164" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="171"/>
-      <c r="AL3" s="171"/>
-      <c r="AM3" s="171"/>
-      <c r="AN3" s="171"/>
-      <c r="AO3" s="172"/>
-      <c r="AP3" s="168" t="s">
-        <v>185</v>
-      </c>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="169"/>
-      <c r="AU3" s="170"/>
-      <c r="AV3" s="171"/>
-      <c r="AW3" s="171"/>
-      <c r="AX3" s="171"/>
-      <c r="AY3" s="171"/>
-      <c r="AZ3" s="171"/>
-      <c r="BA3" s="173"/>
+      <c r="AQ3" s="166"/>
+      <c r="AR3" s="166"/>
+      <c r="AS3" s="166"/>
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="168"/>
+      <c r="AV3" s="169"/>
+      <c r="AW3" s="169"/>
+      <c r="AX3" s="169"/>
+      <c r="AY3" s="169"/>
+      <c r="AZ3" s="169"/>
+      <c r="BA3" s="171"/>
     </row>
     <row r="4" spans="2:53" ht="15.75" thickBot="1">
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="150" t="str">
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="194" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>ERD</v>
       </c>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="153"/>
-      <c r="AD4" s="154"/>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="155"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="157"/>
-      <c r="AM4" s="157"/>
-      <c r="AN4" s="157"/>
-      <c r="AO4" s="158"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="154"/>
-      <c r="AR4" s="154"/>
-      <c r="AS4" s="154"/>
-      <c r="AT4" s="155"/>
-      <c r="AU4" s="156"/>
-      <c r="AV4" s="157"/>
-      <c r="AW4" s="157"/>
-      <c r="AX4" s="157"/>
-      <c r="AY4" s="157"/>
-      <c r="AZ4" s="157"/>
-      <c r="BA4" s="159"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="196"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="152"/>
+      <c r="AI4" s="153"/>
+      <c r="AJ4" s="154"/>
+      <c r="AK4" s="154"/>
+      <c r="AL4" s="154"/>
+      <c r="AM4" s="154"/>
+      <c r="AN4" s="154"/>
+      <c r="AO4" s="198"/>
+      <c r="AP4" s="151"/>
+      <c r="AQ4" s="151"/>
+      <c r="AR4" s="151"/>
+      <c r="AS4" s="151"/>
+      <c r="AT4" s="152"/>
+      <c r="AU4" s="153"/>
+      <c r="AV4" s="154"/>
+      <c r="AW4" s="154"/>
+      <c r="AX4" s="154"/>
+      <c r="AY4" s="154"/>
+      <c r="AZ4" s="154"/>
+      <c r="BA4" s="155"/>
     </row>
     <row r="7" spans="2:53">
       <c r="B7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="AU2:BA2"/>
@@ -3686,15 +4114,6 @@
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AU3:BA3"/>
     <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -3702,1089 +4121,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:L34"/>
+  <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="10.28515625" style="3"/>
-    <col min="13" max="13" width="7" style="3" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.28515625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="14.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="187" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="189"/>
-    </row>
-    <row r="4" spans="2:12" ht="14.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="176" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="178"/>
-    </row>
-    <row r="5" spans="2:12" ht="14.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="176" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="176"/>
-      <c r="H5" s="178"/>
-    </row>
-    <row r="6" spans="2:12" ht="14.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="176" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="176"/>
-      <c r="H6" s="178"/>
-    </row>
-    <row r="7" spans="2:12" ht="14.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="176" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="178"/>
-      <c r="L7" s="3" t="str">
-        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
-        <v>CREATE TABLE t_function(</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="14.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="179" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="181"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="11"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="184"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="11"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
-    </row>
-    <row r="11" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B11" s="12"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="186"/>
-    </row>
-    <row r="13" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15" customHeight="1">
-      <c r="B15" s="15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15:L24" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
-        <v xml:space="preserve">    func_id char(7) PRIMARY KEY NOT NULL,</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1">
-      <c r="B16" s="15">
-        <f>B15+1</f>
-        <v>2</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="20"/>
-      <c r="L16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    screen_id char(7) PRIMARY KEY NOT NULL,</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15" customHeight="1">
-      <c r="B17" s="15">
-        <f t="shared" ref="B17:B24" si="1">B16+1</f>
-        <v>3</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="20"/>
-      <c r="L17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    screen_name character varying(50)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="28" customFormat="1" ht="15" customHeight="1">
-      <c r="B18" s="23">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="L18" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    screen_url character varying(1000)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B19" s="23">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="L19" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_ymd char(8)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B20" s="23">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="L20" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_cd char(7)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B21" s="23">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="L21" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_nm character varying(20)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B22" s="23">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="L22" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_update_ymd char(8),</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B23" s="23">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="L23" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_register_cd char(7),</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B24" s="23">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="L24" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_register_name character varying(20),</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="L25" s="3" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B28" s="47">
-        <v>1</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="52"/>
-    </row>
-    <row r="30" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1">
-      <c r="B31" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="174" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="175"/>
-      <c r="H31" s="57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15" thickBot="1">
-      <c r="B34" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="174" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="175"/>
-      <c r="H34" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:L34"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="10.28515625" style="3"/>
-    <col min="13" max="13" width="7" style="3" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.28515625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="14.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="187" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="189"/>
-    </row>
-    <row r="4" spans="2:12" ht="14.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="176" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="178"/>
-    </row>
-    <row r="5" spans="2:12" ht="14.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="176" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="176"/>
-      <c r="H5" s="178"/>
-    </row>
-    <row r="6" spans="2:12" ht="14.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="176" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="176"/>
-      <c r="H6" s="178"/>
-    </row>
-    <row r="7" spans="2:12" ht="14.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="176" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="178"/>
-      <c r="L7" s="3" t="str">
-        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
-        <v>CREATE TABLE t_permission(</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="14.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="179" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="181"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="11"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="184"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="11"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
-    </row>
-    <row r="11" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B11" s="12"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="186"/>
-    </row>
-    <row r="13" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="34">
-        <v>1</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15:L24" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
-        <v xml:space="preserve">    role_seq serial PRIMARY KEY NOT NULL,</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="34">
-        <f>B15+1</f>
-        <v>2</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="20"/>
-      <c r="L16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    group_cd char(7)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="34">
-        <f t="shared" ref="B17:B23" si="1">B16+1</f>
-        <v>3</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="L17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    screen_id char(7)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="34">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    use_flg char(1)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="L19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_ymd char(8)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="L20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_cd char(7)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="34">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="L21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_nm character varying(20)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="34">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="L22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_update_ymd char(8),</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="34">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="L23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_register_cd char(7),</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B24" s="36">
-        <f>B23+1</f>
-        <v>10</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="L24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_register_nm character varying(20),</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="L25" s="3" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B28" s="47">
-        <v>1</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="52"/>
-    </row>
-    <row r="30" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15" thickBot="1">
-      <c r="B31" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="174" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="175"/>
-      <c r="H31" s="57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15" thickBot="1">
-      <c r="B34" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="174" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="175"/>
-      <c r="H34" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:L32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -4815,115 +4156,111 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="187" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="189"/>
+      <c r="G3" s="199" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="201"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="176" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="178"/>
+      <c r="G4" s="202" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="204"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="176" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="177"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="203"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="176"/>
-      <c r="H5" s="178"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="204"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="176" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="177"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="203"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="176"/>
-      <c r="H6" s="178"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="204"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="176" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="177"/>
+      <c r="D7" s="202" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="203"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="178"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="204"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
-        <v>CREATE TABLE t_group(</v>
+        <v>CREATE TABLE tbl_reservation(</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="181"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="184"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="186"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -4953,21 +4290,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="15">
+    <row r="15" spans="2:12" ht="15" customHeight="1">
+      <c r="B15" s="243">
         <v>1</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>85</v>
-      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>87</v>
+        <v>71</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>24</v>
@@ -4976,301 +4311,309 @@
       <c r="I15" s="20"/>
       <c r="L15" s="3" t="str">
         <f t="shared" ref="L15:L22" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
-        <v xml:space="preserve">    group_cd char(7) PRIMARY KEY NOT NULL,</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" s="68" customFormat="1">
-      <c r="B16" s="64">
+        <v xml:space="preserve">    id serial PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1">
+      <c r="B16" s="243">
         <f>B15+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="L16" s="68" t="str">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    group_name character varying(50)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="68" customFormat="1">
-      <c r="B17" s="64">
-        <f>B16+1</f>
+        <v xml:space="preserve">    status_id varchar(10)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1">
+      <c r="B17" s="243">
         <v>3</v>
       </c>
-      <c r="C17" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="67"/>
-      <c r="L17" s="68" t="str">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_ymd char(8)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="68" customFormat="1">
-      <c r="B18" s="64">
-        <f t="shared" ref="B18:B21" si="1">B17+1</f>
+        <v xml:space="preserve">    guest_id integer,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15" customHeight="1">
+      <c r="B18" s="243">
         <v>4</v>
       </c>
-      <c r="C18" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="67"/>
-      <c r="L18" s="68" t="str">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="20"/>
+      <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_cd char(7)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="68" customFormat="1">
-      <c r="B19" s="64">
-        <f t="shared" si="1"/>
+        <v xml:space="preserve">    check_in varchar(8),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="23">
+        <f t="shared" ref="B19:B20" si="1">B18+1</f>
         <v>5</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="L19" s="68" t="str">
+      <c r="C19" s="24"/>
+      <c r="D19" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="128" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="L19" s="28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_nm character varying(20)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="68" customFormat="1">
-      <c r="B20" s="64">
+        <v xml:space="preserve">    check_out varchar(8),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C20" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="L20" s="68" t="str">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="L20" s="33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_update_ymd char(8),</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="68" customFormat="1">
-      <c r="B21" s="64">
-        <f t="shared" si="1"/>
+        <v xml:space="preserve">    number_of_room integer,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="129">
+        <v>6</v>
+      </c>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="132"/>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    number_of_adult integer,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="129">
         <v>7</v>
       </c>
-      <c r="C21" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="L21" s="68" t="str">
+      <c r="C22" s="130"/>
+      <c r="D22" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="130"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="132"/>
+      <c r="L22" s="28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_register_cd char(7),</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="68" customFormat="1" ht="12.75" thickBot="1">
-      <c r="B22" s="71">
-        <f>B21+1</f>
+        <v xml:space="preserve">    number_of_children integer,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B23" s="137">
         <v>8</v>
       </c>
-      <c r="C22" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="L22" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_register_nm character varying(20),</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="L23" s="3" t="str">
+      <c r="C23" s="37"/>
+      <c r="D23" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="L23" s="33" t="str">
+        <f>"    "&amp;D23&amp;" "&amp;E23 &amp; IF(F23="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F23="Yes", "  NOT NULL", ","))</f>
+        <v xml:space="preserve">    create_ymd varchar(8),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="L24" s="3" t="str">
         <f>");"</f>
         <v>);</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+    </row>
+    <row r="26" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+    </row>
+    <row r="27" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+    </row>
+    <row r="29" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="41" t="s">
+    <row r="30" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B30" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C30" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D30" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="42" t="s">
+      <c r="E30" s="140"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H30" s="57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B26" s="47">
-        <v>1</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="52"/>
-    </row>
-    <row r="28" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B28" s="1" t="s">
+    <row r="32" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" thickBot="1">
-      <c r="B29" s="53" t="s">
+    <row r="33" spans="2:8" ht="15" thickBot="1">
+      <c r="B33" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C33" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D33" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="174" t="s">
+      <c r="E33" s="56"/>
+      <c r="F33" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="175"/>
-      <c r="H29" s="57" t="s">
+      <c r="G33" s="206"/>
+      <c r="H33" s="57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B31" s="1" t="s">
+    <row r="35" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B35" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15" thickBot="1">
-      <c r="B32" s="53" t="s">
+    <row r="36" spans="2:8" ht="15" thickBot="1">
+      <c r="B36" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C36" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D36" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="174" t="s">
+      <c r="E36" s="56"/>
+      <c r="F36" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="175"/>
-      <c r="H32" s="57" t="s">
+      <c r="G36" s="206"/>
+      <c r="H36" s="57" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:L36"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -5300,115 +4643,111 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="188"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="187" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="189"/>
+      <c r="G3" s="199" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="201"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="176" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="178"/>
+      <c r="G4" s="202" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="204"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="176" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="177"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="203"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="176"/>
-      <c r="H5" s="178"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="204"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="176" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="177"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="203"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="176"/>
-      <c r="H6" s="178"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="204"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="176" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="177"/>
+      <c r="D7" s="202" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="203"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="178"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="204"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
-        <v>CREATE TABLE t_user(</v>
+        <v>CREATE TABLE tbl_reservation_detail(</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="181"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="184"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="184"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="186"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5442,17 +4781,15 @@
       <c r="B15" s="15">
         <v>1</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>87</v>
+        <v>192</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>24</v>
@@ -5460,8 +4797,8 @@
       <c r="H15" s="19"/>
       <c r="I15" s="20"/>
       <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15:L26" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
-        <v xml:space="preserve">    user_id char(7) PRIMARY KEY NOT NULL,</v>
+        <f t="shared" ref="L15:L17" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    reservation_id integer PRIMARY KEY NOT NULL,</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1">
@@ -5469,367 +4806,645 @@
         <f>B15+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>30</v>
+        <v>189</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="22"/>
       <c r="I16" s="20"/>
       <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    user_name character varying(50)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B17" s="15">
-        <f t="shared" ref="B17:B26" si="1">B16+1</f>
+        <v xml:space="preserve">    room_id varchar(5) PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1" thickBot="1">
+      <c r="B17" s="146">
+        <f t="shared" ref="B17" si="1">B16+1</f>
         <v>3</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="L17" s="33" t="str">
+      <c r="C17" s="147"/>
+      <c r="D17" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="147" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="20"/>
+      <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    login_pwd character varying(50),</v>
+        <v xml:space="preserve">    create_ymd varchar(8),</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B18" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="L18" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    pwd_regs_ymd char(8),</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B19" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    acc_lock_flg char(1),</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="28" customFormat="1" ht="15" customHeight="1">
-      <c r="B20" s="15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    delete_flg char(1),</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B21" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="L21" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_ymd char(8)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B22" s="15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="32"/>
-      <c r="L22" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_cd char(7)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B23" s="15">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="L23" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    register_nm character varying(20)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B24" s="15">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="L24" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_update_ymd char(8),</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B25" s="15">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="L25" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_register_cd char(7),</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B26" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="L26" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    last_register_nm character varying(20),</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="L27" s="3" t="str">
+      <c r="B18" s="133"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="L18" s="3" t="str">
         <f>");"</f>
         <v>);</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B28" s="1" t="s">
+    <row r="19" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+    </row>
+    <row r="20" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+    </row>
+    <row r="21" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="133"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="41" t="s">
+    <row r="24" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B24" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C24" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D24" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="42" t="s">
+      <c r="E24" s="140"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H24" s="57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B30" s="47">
-        <v>1</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="52"/>
-    </row>
-    <row r="32" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B32" s="1" t="s">
+    <row r="26" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15" thickBot="1">
-      <c r="B33" s="53" t="s">
+    <row r="27" spans="2:12" ht="15" thickBot="1">
+      <c r="B27" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C27" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D27" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="174" t="s">
+      <c r="E27" s="56"/>
+      <c r="F27" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="175"/>
-      <c r="H33" s="57" t="s">
+      <c r="G27" s="206"/>
+      <c r="H27" s="57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B35" s="1" t="s">
+    <row r="29" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15" thickBot="1">
-      <c r="B36" s="53" t="s">
+    <row r="30" spans="2:12" ht="15" thickBot="1">
+      <c r="B30" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C30" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D30" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="174" t="s">
+      <c r="E30" s="56"/>
+      <c r="F30" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="175"/>
-      <c r="H36" s="57" t="s">
+      <c r="G30" s="206"/>
+      <c r="H30" s="57" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" style="3"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="199" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="201"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="202" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="204"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="202"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="202"/>
+      <c r="H5" s="204"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="202"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="202"/>
+      <c r="H6" s="204"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="202" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="204"/>
+      <c r="L7" s="3" t="str">
+        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
+        <v>CREATE TABLE tbl_guest(</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="11"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="11"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1">
+      <c r="B15" s="243">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="3" t="str">
+        <f t="shared" ref="L15:L22" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    id serial PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1">
+      <c r="B16" s="243">
+        <f>B15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    name varchar(50)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1">
+      <c r="B17" s="243">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    phone varchar(20),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15" customHeight="1">
+      <c r="B18" s="243">
+        <v>4</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="20"/>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    mail varchar(50),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="23">
+        <f t="shared" ref="B19:B20" si="1">B18+1</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="L19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    identity_card varchar(12),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="L20" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    company varchar(50),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="129">
+        <v>7</v>
+      </c>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="130" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="132"/>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    address varchar(100),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="129">
+        <v>8</v>
+      </c>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="130" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="130"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="132"/>
+      <c r="L22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    company_phone varchar(20),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B23" s="137">
+        <v>9</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="138" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="L23" s="33" t="str">
+        <f>"    "&amp;D23&amp;" "&amp;E23 &amp; IF(F23="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F23="Yes", "  NOT NULL", ","))</f>
+        <v xml:space="preserve">    country varchar(50),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="L24" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+    </row>
+    <row r="26" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+    </row>
+    <row r="27" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+    </row>
+    <row r="29" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B30" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="140"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" thickBot="1">
+      <c r="B33" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="205" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="206"/>
+      <c r="H33" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" thickBot="1">
+      <c r="B36" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="206"/>
+      <c r="H36" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="D6:E6"/>
@@ -5838,6 +5453,2153 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:L34"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" style="3"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="199" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="201"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="202" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="204"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="203"/>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="202"/>
+      <c r="H5" s="204"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="202" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="203"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="202"/>
+      <c r="H6" s="204"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="202" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="204"/>
+      <c r="L7" s="3" t="str">
+        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
+        <v>CREATE TABLE tbl_function(</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="11"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="11"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="3" t="str">
+        <f t="shared" ref="L15:L24" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    func_id char(7) PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1">
+      <c r="B16" s="15">
+        <f>B15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    screen_id char(7) PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1">
+      <c r="B17" s="15">
+        <f t="shared" ref="B17:B24" si="1">B16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    screen_name character varying(50)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="L18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    screen_url character varying(1000)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="L19" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_ymd char(8)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="L20" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_cd char(7)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="L21" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_nm character varying(20)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="L22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_update_ymd char(8),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="L23" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_register_cd char(7),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B24" s="139">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="L24" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_register_name character varying(20),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="L25" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B28" s="47">
+        <v>1</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="52"/>
+    </row>
+    <row r="30" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15" thickBot="1">
+      <c r="B31" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="205" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="206"/>
+      <c r="H31" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" thickBot="1">
+      <c r="B34" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="56"/>
+      <c r="F34" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="206"/>
+      <c r="H34" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:L34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" style="3"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="199" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="201"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="202" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="204"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="203"/>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="202"/>
+      <c r="H5" s="204"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="202" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="203"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="202"/>
+      <c r="H6" s="204"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="202" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="204"/>
+      <c r="L7" s="3" t="str">
+        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
+        <v>CREATE TABLE tbl_permission(</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="11"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="11"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="L15" s="3" t="str">
+        <f t="shared" ref="L15:L24" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    role_seq serial PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="34">
+        <f>B15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    group_cd char(7)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="34">
+        <f t="shared" ref="B17:B23" si="1">B16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    screen_id char(7)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    use_flg char(1)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="34">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="L19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_ymd char(8)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="L20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_cd char(7)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_nm character varying(20)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="L22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_update_ymd char(8),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="34">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_register_cd char(7),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B24" s="36">
+        <f>B23+1</f>
+        <v>10</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_register_nm character varying(20),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="L25" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B28" s="47">
+        <v>1</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="52"/>
+    </row>
+    <row r="30" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15" thickBot="1">
+      <c r="B31" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="205" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="206"/>
+      <c r="H31" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" thickBot="1">
+      <c r="B34" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="56"/>
+      <c r="F34" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="206"/>
+      <c r="H34" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:L32"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" style="3"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="199" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="201"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="202" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="204"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="203"/>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="202"/>
+      <c r="H5" s="204"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="202" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="203"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="202"/>
+      <c r="H6" s="204"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="202" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="204"/>
+      <c r="L7" s="3" t="str">
+        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
+        <v>CREATE TABLE tbl_group(</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="11"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="11"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="3" t="str">
+        <f t="shared" ref="L15:L22" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    group_cd char(7) PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="68" customFormat="1">
+      <c r="B16" s="64">
+        <f>B15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
+      <c r="L16" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    group_name character varying(50)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="68" customFormat="1">
+      <c r="B17" s="64">
+        <f>B16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="67"/>
+      <c r="L17" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_ymd char(8)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="68" customFormat="1">
+      <c r="B18" s="64">
+        <f t="shared" ref="B18:B21" si="1">B17+1</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="67"/>
+      <c r="L18" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_cd char(7)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="68" customFormat="1">
+      <c r="B19" s="64">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="L19" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_nm character varying(20)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="68" customFormat="1">
+      <c r="B20" s="64">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="69"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="L20" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_update_ymd char(8),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="68" customFormat="1">
+      <c r="B21" s="64">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="69"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="L21" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_register_cd char(7),</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="68" customFormat="1" ht="12.75" thickBot="1">
+      <c r="B22" s="71">
+        <f>B21+1</f>
+        <v>8</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+      <c r="L22" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_register_nm character varying(20),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="L23" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B26" s="47">
+        <v>1</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="52"/>
+    </row>
+    <row r="28" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15" thickBot="1">
+      <c r="B29" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="205" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="206"/>
+      <c r="H29" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="15" thickBot="1">
+      <c r="B32" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="56"/>
+      <c r="F32" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="206"/>
+      <c r="H32" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:L36"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" style="3"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="199" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="201"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="202" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="204"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="203"/>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="202"/>
+      <c r="H5" s="204"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="202" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="203"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="202"/>
+      <c r="H6" s="204"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="204"/>
+      <c r="L7" s="3" t="str">
+        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
+        <v>CREATE TABLE tbl_user(</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="11"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="11"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="3" t="str">
+        <f t="shared" ref="L15:L26" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    user_id char(7) PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1">
+      <c r="B16" s="15">
+        <f>B15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    user_name character varying(50)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="15">
+        <f t="shared" ref="B17:B26" si="1">B16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="L17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    login_pwd character varying(50),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="L18" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    pwd_regs_ymd char(8),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    acc_lock_flg char(1),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    delete_flg char(1),</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="L21" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_ymd char(8)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="L22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_cd char(7)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="L23" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    register_nm character varying(20)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="L24" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_update_ymd char(8),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="L25" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_register_cd char(7),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="L26" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    last_register_nm character varying(20),</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="L27" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B30" s="47">
+        <v>1</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="52"/>
+    </row>
+    <row r="32" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" thickBot="1">
+      <c r="B33" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="205" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="206"/>
+      <c r="H33" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" thickBot="1">
+      <c r="B36" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="206"/>
+      <c r="H36" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5852,7 +7614,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -5882,142 +7644,142 @@
       <c r="C3" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="203"/>
-      <c r="E3" s="204"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
       <c r="F3" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="203" t="s">
+      <c r="G3" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="205"/>
+      <c r="H3" s="217"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="B4" s="82"/>
       <c r="C4" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="192"/>
-      <c r="E4" s="193"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
       <c r="F4" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="176" t="s">
+      <c r="G4" s="202" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="178"/>
+      <c r="H4" s="204"/>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="B5" s="82"/>
       <c r="C5" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="192" t="s">
+      <c r="D5" s="218" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="193"/>
+      <c r="E5" s="219"/>
       <c r="F5" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="192"/>
-      <c r="H5" s="194"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="B6" s="82"/>
       <c r="C6" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="192" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="193"/>
+      <c r="D6" s="218" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="219"/>
       <c r="F6" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="192"/>
-      <c r="H6" s="194"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="220"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="B7" s="82"/>
       <c r="C7" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="193"/>
+      <c r="D7" s="218" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="219"/>
       <c r="F7" s="85"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="194"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="220"/>
       <c r="L7" s="76" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
-        <v>CREATE TABLE t_user_group(</v>
+        <v>CREATE TABLE tbl_user_group(</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="B8" s="86"/>
-      <c r="C8" s="195" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
+      <c r="C8" s="223" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="225"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="86"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="200"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="228"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="86"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="200"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="228"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" thickBot="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="202"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="230"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" thickBot="1">
       <c r="B13" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="D14" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="E14" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="F14" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="G14" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="81" t="s">
+      <c r="H14" s="89" t="s">
         <v>144</v>
-      </c>
-      <c r="H14" s="89" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6026,10 +7788,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="92" t="s">
         <v>146</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>147</v>
       </c>
       <c r="E15" s="93" t="s">
         <v>71</v>
@@ -6041,11 +7803,11 @@
         <v>24</v>
       </c>
       <c r="H15" s="95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I15" s="96"/>
       <c r="K15" s="76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L15" s="76" t="str">
         <f t="shared" ref="L15:L22" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
@@ -6058,10 +7820,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="97" t="s">
         <v>150</v>
-      </c>
-      <c r="D16" s="97" t="s">
-        <v>151</v>
       </c>
       <c r="E16" s="97" t="s">
         <v>75</v>
@@ -6085,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>74</v>
@@ -6110,7 +7872,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="97" t="s">
         <v>64</v>
@@ -6122,7 +7884,7 @@
         <v>34</v>
       </c>
       <c r="G18" s="100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H18" s="101"/>
       <c r="L18" s="76" t="str">
@@ -6136,7 +7898,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="103" t="s">
         <v>65</v>
@@ -6148,7 +7910,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" s="101"/>
       <c r="L19" s="76" t="str">
@@ -6162,7 +7924,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="103" t="s">
         <v>66</v>
@@ -6174,7 +7936,7 @@
         <v>34</v>
       </c>
       <c r="G20" s="100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H20" s="101"/>
       <c r="L20" s="76" t="str">
@@ -6188,7 +7950,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="97" t="s">
         <v>67</v>
@@ -6210,7 +7972,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="103" t="s">
         <v>63</v>
@@ -6232,7 +7994,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="106" t="s">
         <v>84</v>
@@ -6256,26 +8018,26 @@
     </row>
     <row r="25" spans="2:12" ht="12.75" thickBot="1">
       <c r="B25" s="77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="111" t="s">
         <v>162</v>
-      </c>
-      <c r="D26" s="111" t="s">
-        <v>163</v>
       </c>
       <c r="E26" s="112"/>
       <c r="F26" s="113"/>
       <c r="G26" s="110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26" s="114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="12.75" thickBot="1">
@@ -6289,60 +8051,54 @@
     </row>
     <row r="29" spans="2:12" ht="12.75" thickBot="1">
       <c r="B29" s="77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="16.5" thickBot="1">
       <c r="B30" s="121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="124"/>
+      <c r="F30" s="221" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="124"/>
-      <c r="F30" s="190" t="s">
+      <c r="G30" s="222"/>
+      <c r="H30" s="125" t="s">
         <v>167</v>
-      </c>
-      <c r="G30" s="191"/>
-      <c r="H30" s="125" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="12.75" thickBot="1">
       <c r="B32" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="16.5" thickBot="1">
       <c r="B33" s="121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D33" s="123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" s="124"/>
-      <c r="F33" s="190" t="s">
+      <c r="F33" s="221" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="222"/>
+      <c r="H33" s="125" t="s">
         <v>170</v>
-      </c>
-      <c r="G33" s="191"/>
-      <c r="H33" s="125" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -6351,8 +8107,1197 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" style="3"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="231"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="231" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="233"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="234" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="236"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="234"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="234"/>
+      <c r="H5" s="236"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="234"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="234"/>
+      <c r="H6" s="236"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="234" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="235"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="236"/>
+      <c r="L7" s="3" t="str">
+        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
+        <v>CREATE TABLE tbl_room_type(</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="11"/>
+      <c r="C8" s="238" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="239"/>
+    </row>
+    <row r="9" spans="2:12" ht="12" customHeight="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="240"/>
+    </row>
+    <row r="10" spans="2:12" ht="12" customHeight="1">
+      <c r="B10" s="11"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="240"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="242"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="3" t="str">
+        <f>"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    room_type_id varchar(5) PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1">
+      <c r="B16" s="15">
+        <f>B15+1</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="3" t="str">
+        <f t="shared" ref="L16:L18" si="0">"    "&amp;D16&amp;" "&amp;E16 &amp; IF(F16="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F16="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    type_name varchar(30),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1">
+      <c r="B17" s="15">
+        <f t="shared" ref="B17:B18" si="1">B16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="L17" s="3" t="str">
+        <f>"    "&amp;D17&amp;" "&amp;E17 &amp; IF(F17="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F17="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    description varchar(100),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B18" s="139">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="141"/>
+      <c r="D18" s="142" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="143"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="145"/>
+      <c r="L18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    price numeric(11,2),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="L19" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+    </row>
+    <row r="21" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="133"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+    </row>
+    <row r="22" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+    </row>
+    <row r="24" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B25" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="140"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B28" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="205" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="237"/>
+      <c r="H28" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B31" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="237"/>
+      <c r="H31" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" style="3"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="199" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="201"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="202" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="204"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="202"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="202"/>
+      <c r="H5" s="204"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="202"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="202"/>
+      <c r="H6" s="204"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="204"/>
+      <c r="L7" s="3" t="str">
+        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
+        <v>CREATE TABLE tbl_room(</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="11"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="11"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1">
+      <c r="B15" s="243">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="3" t="str">
+        <f t="shared" ref="L15:L18" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    room_id varchar(5) PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1">
+      <c r="B16" s="243">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    room_type_id varchar(5)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="23">
+        <f t="shared" ref="B17:B19" si="1">B16+1</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="L17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    floor integer,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="L18" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    status_id varchar(10),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B19" s="137">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="138" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="L19" s="33" t="str">
+        <f>"    "&amp;D19&amp;" "&amp;E19 &amp; IF(F19="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F19="Yes", "  NOT NULL", ","))</f>
+        <v xml:space="preserve">    room_number varchar(5),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="L20" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="133"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+    </row>
+    <row r="22" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+    </row>
+    <row r="23" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+    </row>
+    <row r="25" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B26" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="140"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15" thickBot="1">
+      <c r="B29" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="205" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="206"/>
+      <c r="H29" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="15" thickBot="1">
+      <c r="B32" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="56"/>
+      <c r="F32" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="206"/>
+      <c r="H32" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" style="3"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="199" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="201"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="202"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="202" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="204"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="202"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="202"/>
+      <c r="H5" s="204"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="202"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="202"/>
+      <c r="H6" s="204"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="202" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="204"/>
+      <c r="L7" s="3" t="str">
+        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
+        <v>CREATE TABLE tbl__status(</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="209"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="11"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="11"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="214"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1">
+      <c r="B15" s="244">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="3" t="str">
+        <f t="shared" ref="L15:L18" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    status_id varchar(10) PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1">
+      <c r="B16" s="244">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    status_type varchar(2),</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1">
+      <c r="B17" s="244">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    status_name varchar(50),</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15" customHeight="1" thickBot="1">
+      <c r="B18" s="245">
+        <v>4</v>
+      </c>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="147" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="147"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="20"/>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    description varchar(255),</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="L19" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+    </row>
+    <row r="21" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="133"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+    </row>
+    <row r="22" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+    </row>
+    <row r="24" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B25" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="140"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15" thickBot="1">
+      <c r="B28" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="205" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="206"/>
+      <c r="H28" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15" thickBot="1">
+      <c r="B31" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="56"/>
+      <c r="F31" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="206"/>
+      <c r="H31" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/DefineTable.xlsx
+++ b/Database/DefineTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="257">
   <si>
     <r>
       <rPr>
@@ -1629,6 +1629,12 @@
   </si>
   <si>
     <t>amount_total</t>
+  </si>
+  <si>
+    <t>date_in</t>
+  </si>
+  <si>
+    <t>date_out</t>
   </si>
 </sst>
 </file>
@@ -3385,6 +3391,75 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3433,18 +3508,6 @@
     <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3469,79 +3532,31 @@
     <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3568,28 +3583,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3616,25 +3631,25 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3651,15 +3666,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4007,191 +4013,191 @@
   <sheetData>
     <row r="1" spans="2:53" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:53">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="173" t="s">
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="196" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176" t="s">
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199" t="s">
         <v>169</v>
       </c>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="179" t="s">
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="200"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202" t="s">
         <v>163</v>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="180"/>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="182" t="s">
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="183"/>
-      <c r="AK2" s="183"/>
-      <c r="AL2" s="183"/>
-      <c r="AM2" s="183"/>
-      <c r="AN2" s="183"/>
-      <c r="AO2" s="184"/>
-      <c r="AP2" s="180" t="s">
+      <c r="AJ2" s="170"/>
+      <c r="AK2" s="170"/>
+      <c r="AL2" s="170"/>
+      <c r="AM2" s="170"/>
+      <c r="AN2" s="170"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="AQ2" s="180"/>
-      <c r="AR2" s="180"/>
-      <c r="AS2" s="180"/>
-      <c r="AT2" s="181"/>
-      <c r="AU2" s="182">
+      <c r="AQ2" s="185"/>
+      <c r="AR2" s="185"/>
+      <c r="AS2" s="185"/>
+      <c r="AT2" s="186"/>
+      <c r="AU2" s="169">
         <v>42892</v>
       </c>
-      <c r="AV2" s="183"/>
-      <c r="AW2" s="183"/>
-      <c r="AX2" s="183"/>
-      <c r="AY2" s="183"/>
-      <c r="AZ2" s="183"/>
-      <c r="BA2" s="198"/>
+      <c r="AV2" s="170"/>
+      <c r="AW2" s="170"/>
+      <c r="AX2" s="170"/>
+      <c r="AY2" s="170"/>
+      <c r="AZ2" s="170"/>
+      <c r="BA2" s="171"/>
     </row>
     <row r="3" spans="2:53">
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="199" t="s">
+      <c r="B3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="202" t="s">
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="205" t="s">
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="AD3" s="206"/>
-      <c r="AE3" s="206"/>
-      <c r="AF3" s="206"/>
-      <c r="AG3" s="206"/>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="208"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
-      <c r="AL3" s="209"/>
-      <c r="AM3" s="209"/>
-      <c r="AN3" s="209"/>
-      <c r="AO3" s="210"/>
-      <c r="AP3" s="206" t="s">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="179"/>
+      <c r="AG3" s="179"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="181"/>
+      <c r="AJ3" s="182"/>
+      <c r="AK3" s="182"/>
+      <c r="AL3" s="182"/>
+      <c r="AM3" s="182"/>
+      <c r="AN3" s="182"/>
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="179" t="s">
         <v>168</v>
       </c>
-      <c r="AQ3" s="206"/>
-      <c r="AR3" s="206"/>
-      <c r="AS3" s="206"/>
-      <c r="AT3" s="207"/>
-      <c r="AU3" s="208"/>
-      <c r="AV3" s="209"/>
-      <c r="AW3" s="209"/>
-      <c r="AX3" s="209"/>
-      <c r="AY3" s="209"/>
-      <c r="AZ3" s="209"/>
-      <c r="BA3" s="211"/>
+      <c r="AQ3" s="179"/>
+      <c r="AR3" s="179"/>
+      <c r="AS3" s="179"/>
+      <c r="AT3" s="180"/>
+      <c r="AU3" s="181"/>
+      <c r="AV3" s="182"/>
+      <c r="AW3" s="182"/>
+      <c r="AX3" s="182"/>
+      <c r="AY3" s="182"/>
+      <c r="AZ3" s="182"/>
+      <c r="BA3" s="184"/>
     </row>
     <row r="4" spans="2:53" ht="15.75" thickBot="1">
-      <c r="B4" s="170"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="187"/>
-      <c r="P4" s="188" t="str">
+      <c r="B4" s="193"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="207" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>ERD</v>
       </c>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="189"/>
-      <c r="S4" s="189"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="189"/>
-      <c r="V4" s="189"/>
-      <c r="W4" s="189"/>
-      <c r="X4" s="189"/>
-      <c r="Y4" s="189"/>
-      <c r="Z4" s="189"/>
-      <c r="AA4" s="189"/>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="191"/>
-      <c r="AD4" s="192"/>
-      <c r="AE4" s="192"/>
-      <c r="AF4" s="192"/>
-      <c r="AG4" s="192"/>
-      <c r="AH4" s="193"/>
-      <c r="AI4" s="194"/>
-      <c r="AJ4" s="195"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195"/>
-      <c r="AN4" s="195"/>
-      <c r="AO4" s="196"/>
-      <c r="AP4" s="192"/>
-      <c r="AQ4" s="192"/>
-      <c r="AR4" s="192"/>
-      <c r="AS4" s="192"/>
-      <c r="AT4" s="193"/>
-      <c r="AU4" s="194"/>
-      <c r="AV4" s="195"/>
-      <c r="AW4" s="195"/>
-      <c r="AX4" s="195"/>
-      <c r="AY4" s="195"/>
-      <c r="AZ4" s="195"/>
-      <c r="BA4" s="197"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="208"/>
+      <c r="V4" s="208"/>
+      <c r="W4" s="208"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="209"/>
+      <c r="AC4" s="210"/>
+      <c r="AD4" s="164"/>
+      <c r="AE4" s="164"/>
+      <c r="AF4" s="164"/>
+      <c r="AG4" s="164"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="166"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="167"/>
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="211"/>
+      <c r="AP4" s="164"/>
+      <c r="AQ4" s="164"/>
+      <c r="AR4" s="164"/>
+      <c r="AS4" s="164"/>
+      <c r="AT4" s="165"/>
+      <c r="AU4" s="166"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="167"/>
+      <c r="AX4" s="167"/>
+      <c r="AY4" s="167"/>
+      <c r="AZ4" s="167"/>
+      <c r="BA4" s="168"/>
     </row>
     <row r="7" spans="2:53">
       <c r="B7" t="s">
@@ -4200,6 +4206,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="AU2:BA2"/>
@@ -4210,15 +4225,6 @@
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AU3:BA3"/>
     <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4261,69 +4267,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room_accessory(</v>
@@ -4331,41 +4337,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -4635,10 +4641,10 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="212" t="s">
+      <c r="F32" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="213"/>
+      <c r="G32" s="219"/>
       <c r="H32" s="57" t="s">
         <v>50</v>
       </c>
@@ -4659,16 +4665,22 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="212" t="s">
+      <c r="F35" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="213"/>
+      <c r="G35" s="219"/>
       <c r="H35" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="D6:E6"/>
@@ -4677,12 +4689,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4723,69 +4729,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_guest(</v>
@@ -4793,41 +4799,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5159,10 +5165,10 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="212" t="s">
+      <c r="F35" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="213"/>
+      <c r="G35" s="219"/>
       <c r="H35" s="57" t="s">
         <v>50</v>
       </c>
@@ -5183,22 +5189,16 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="212" t="s">
+      <c r="F38" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="213"/>
+      <c r="G38" s="219"/>
       <c r="H38" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="D6:E6"/>
@@ -5207,6 +5207,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5247,69 +5253,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_reservation(</v>
@@ -5317,41 +5323,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5708,10 +5714,10 @@
         <v>42</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="212" t="s">
+      <c r="F36" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="213"/>
+      <c r="G36" s="219"/>
       <c r="H36" s="57" t="s">
         <v>50</v>
       </c>
@@ -5732,22 +5738,16 @@
         <v>42</v>
       </c>
       <c r="E39" s="56"/>
-      <c r="F39" s="212" t="s">
+      <c r="F39" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="213"/>
+      <c r="G39" s="219"/>
       <c r="H39" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D6:E6"/>
@@ -5756,6 +5756,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5764,10 +5770,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L36"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E23"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -5797,69 +5803,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_reservation_detail(</v>
@@ -5867,41 +5873,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5951,7 +5957,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="20"/>
       <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15:L23" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <f t="shared" ref="L15:L25" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
         <v xml:space="preserve">    id serial PRIMARY KEY NOT NULL,</v>
       </c>
     </row>
@@ -5966,15 +5972,13 @@
       <c r="E16" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>178</v>
-      </c>
+      <c r="F16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
       <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    reservation_id integer  NOT NULL,</v>
+        <v xml:space="preserve">    reservation_id integer,</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1">
@@ -5988,166 +5992,162 @@
       <c r="E17" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>178</v>
-      </c>
+      <c r="F17" s="17"/>
       <c r="G17" s="21"/>
       <c r="H17" s="22"/>
       <c r="I17" s="20"/>
       <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    room_id varchar(5)  NOT NULL,</v>
+        <v xml:space="preserve">    room_id varchar(5),</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="15">
-        <v>5</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="156"/>
       <c r="D18" s="156" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E18" s="156" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>178</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F18" s="17"/>
       <c r="G18" s="157"/>
       <c r="H18" s="158"/>
       <c r="I18" s="20"/>
-      <c r="L18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    customer_name varchar(50)  NOT NULL,</v>
-      </c>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="15">
-        <v>6</v>
-      </c>
+      <c r="B19" s="15"/>
       <c r="C19" s="156"/>
       <c r="D19" s="156" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E19" s="156" t="s">
-        <v>216</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>178</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F19" s="17"/>
       <c r="G19" s="157"/>
       <c r="H19" s="158"/>
       <c r="I19" s="20"/>
-      <c r="L19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    customer_identity_card varchar(12)  NOT NULL,</v>
-      </c>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
       <c r="B20" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="156"/>
       <c r="D20" s="156" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>178</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="F20" s="17"/>
       <c r="G20" s="157"/>
       <c r="H20" s="158"/>
       <c r="I20" s="20"/>
       <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    customer_phone varchar(20)  NOT NULL,</v>
+        <v xml:space="preserve">    customer_name varchar(50),</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
       <c r="B21" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="156"/>
       <c r="D21" s="156" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E21" s="156" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>178</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="157"/>
       <c r="H21" s="158"/>
       <c r="I21" s="20"/>
       <c r="L21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    customer_email varchar(50)  NOT NULL,</v>
+        <v xml:space="preserve">    customer_identity_card varchar(12),</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
       <c r="B22" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="156"/>
       <c r="D22" s="156" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="E22" s="156" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" s="159"/>
+        <v>179</v>
+      </c>
+      <c r="F22" s="17"/>
       <c r="G22" s="157"/>
       <c r="H22" s="158"/>
       <c r="I22" s="20"/>
       <c r="L22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    update_ymd timestamp,</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B23" s="146">
-        <v>10</v>
-      </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" s="147" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="149"/>
+        <v xml:space="preserve">    customer_phone varchar(20),</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15" customHeight="1">
+      <c r="B23" s="15">
+        <v>8</v>
+      </c>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="158"/>
       <c r="I23" s="20"/>
       <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve">    customer_email varchar(50),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15" customHeight="1">
+      <c r="B24" s="15">
+        <v>9</v>
+      </c>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" s="159"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="20"/>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    update_ymd timestamp,</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15" customHeight="1" thickBot="1">
+      <c r="B25" s="146">
+        <v>10</v>
+      </c>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="147" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="147"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">    create_ymd timestamp,</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B24" s="133"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="L24" s="3" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
     </row>
     <row r="26" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="133"/>
@@ -6157,104 +6157,126 @@
       <c r="F26" s="134"/>
       <c r="G26" s="136"/>
       <c r="H26" s="136"/>
+      <c r="L26" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
     </row>
     <row r="27" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="133"/>
       <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="134"/>
       <c r="F27" s="134"/>
       <c r="G27" s="136"/>
       <c r="H27" s="136"/>
     </row>
-    <row r="29" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B29" s="1" t="s">
+    <row r="28" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+    </row>
+    <row r="29" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+    </row>
+    <row r="31" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B30" s="53" t="s">
+    <row r="32" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="126" t="s">
+      <c r="D32" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="140"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="54" t="s">
+      <c r="E32" s="140"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="H32" s="57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15" thickBot="1">
-      <c r="B33" s="53" t="s">
+    <row r="35" spans="2:8" ht="15" thickBot="1">
+      <c r="B35" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C35" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="126" t="s">
+      <c r="D35" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="212" t="s">
+      <c r="E35" s="56"/>
+      <c r="F35" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="213"/>
-      <c r="H33" s="57" t="s">
+      <c r="G35" s="219"/>
+      <c r="H35" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15" thickBot="1">
-      <c r="B36" s="53" t="s">
+    <row r="38" spans="2:8" ht="15" thickBot="1">
+      <c r="B38" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C38" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="126" t="s">
+      <c r="D38" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="212" t="s">
+      <c r="E38" s="56"/>
+      <c r="F38" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="213"/>
-      <c r="H36" s="57" t="s">
+      <c r="G38" s="219"/>
+      <c r="H38" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6296,69 +6318,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_payment_type(</v>
@@ -6366,41 +6388,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -6600,10 +6622,10 @@
         <v>42</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="212" t="s">
+      <c r="F28" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="213"/>
+      <c r="G28" s="219"/>
       <c r="H28" s="57" t="s">
         <v>50</v>
       </c>
@@ -6624,16 +6646,22 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="212" t="s">
+      <c r="F31" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="213"/>
+      <c r="G31" s="219"/>
       <c r="H31" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="D6:E6"/>
@@ -6642,12 +6670,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6688,69 +6710,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_invoice(</v>
@@ -6758,41 +6780,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -7114,10 +7136,10 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="212" t="s">
+      <c r="F34" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="213"/>
+      <c r="G34" s="219"/>
       <c r="H34" s="57" t="s">
         <v>50</v>
       </c>
@@ -7138,16 +7160,22 @@
         <v>42</v>
       </c>
       <c r="E37" s="56"/>
-      <c r="F37" s="212" t="s">
+      <c r="F37" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="213"/>
+      <c r="G37" s="219"/>
       <c r="H37" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="D6:E6"/>
@@ -7156,12 +7184,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7171,8 +7193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -7202,69 +7224,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_invoice_detail(</v>
@@ -7272,41 +7294,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -7600,10 +7622,10 @@
         <v>42</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="212" t="s">
+      <c r="F33" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="213"/>
+      <c r="G33" s="219"/>
       <c r="H33" s="57" t="s">
         <v>50</v>
       </c>
@@ -7624,16 +7646,22 @@
         <v>42</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="212" t="s">
+      <c r="F36" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="213"/>
+      <c r="G36" s="219"/>
       <c r="H36" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="D6:E6"/>
@@ -7642,12 +7670,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7688,69 +7710,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl__status(</v>
@@ -7758,41 +7780,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -8026,10 +8048,10 @@
         <v>42</v>
       </c>
       <c r="E30" s="56"/>
-      <c r="F30" s="212" t="s">
+      <c r="F30" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="213"/>
+      <c r="G30" s="219"/>
       <c r="H30" s="57" t="s">
         <v>50</v>
       </c>
@@ -8050,22 +8072,16 @@
         <v>42</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="212" t="s">
+      <c r="F33" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="213"/>
+      <c r="G33" s="219"/>
       <c r="H33" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -8074,6 +8090,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8117,73 +8139,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214" t="s">
+      <c r="D6" s="215" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_function(</v>
@@ -8191,41 +8213,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -8560,10 +8582,10 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="212" t="s">
+      <c r="F31" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="213"/>
+      <c r="G31" s="219"/>
       <c r="H31" s="57" t="s">
         <v>50</v>
       </c>
@@ -8584,22 +8606,16 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="212" t="s">
+      <c r="F34" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="213"/>
+      <c r="G34" s="219"/>
       <c r="H34" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -8608,6 +8624,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8652,73 +8674,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214" t="s">
+      <c r="D6" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_permission(</v>
@@ -8726,41 +8748,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -9100,10 +9122,10 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="212" t="s">
+      <c r="F31" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="213"/>
+      <c r="G31" s="219"/>
       <c r="H31" s="57" t="s">
         <v>50</v>
       </c>
@@ -9124,22 +9146,16 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="212" t="s">
+      <c r="F34" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="213"/>
+      <c r="G34" s="219"/>
       <c r="H34" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -9148,6 +9164,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9192,73 +9214,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214" t="s">
+      <c r="D6" s="215" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_group(</v>
@@ -9266,41 +9288,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -9585,10 +9607,10 @@
         <v>42</v>
       </c>
       <c r="E29" s="56"/>
-      <c r="F29" s="212" t="s">
+      <c r="F29" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="213"/>
+      <c r="G29" s="219"/>
       <c r="H29" s="57" t="s">
         <v>50</v>
       </c>
@@ -9609,22 +9631,16 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="212" t="s">
+      <c r="F32" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="213"/>
+      <c r="G32" s="219"/>
       <c r="H32" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D6:E6"/>
@@ -9633,6 +9649,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9677,73 +9699,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214" t="s">
+      <c r="D6" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_user(</v>
@@ -9751,41 +9773,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -10262,10 +10284,10 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="212" t="s">
+      <c r="F38" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="213"/>
+      <c r="G38" s="219"/>
       <c r="H38" s="57" t="s">
         <v>50</v>
       </c>
@@ -10286,22 +10308,16 @@
         <v>42</v>
       </c>
       <c r="E41" s="56"/>
-      <c r="F41" s="212" t="s">
+      <c r="F41" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="213"/>
+      <c r="G41" s="219"/>
       <c r="H41" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="D6:E6"/>
@@ -10310,6 +10326,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10354,73 +10376,73 @@
       <c r="C3" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="241"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="229"/>
       <c r="F3" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="241" t="s">
+      <c r="G3" s="228" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="243"/>
+      <c r="H3" s="230"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="B4" s="82"/>
       <c r="C4" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="232"/>
       <c r="F4" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="B5" s="82"/>
       <c r="C5" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="230" t="s">
+      <c r="D5" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="231"/>
+      <c r="E5" s="232"/>
       <c r="F5" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="230"/>
-      <c r="H5" s="232"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="233"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="B6" s="82"/>
       <c r="C6" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="230" t="s">
+      <c r="D6" s="231" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="231"/>
+      <c r="E6" s="232"/>
       <c r="F6" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="232"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="233"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="B7" s="82"/>
       <c r="C7" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="230" t="s">
+      <c r="D7" s="231" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="231"/>
+      <c r="E7" s="232"/>
       <c r="F7" s="85"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="232"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="233"/>
       <c r="L7" s="76" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_user_group(</v>
@@ -10428,41 +10450,41 @@
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="B8" s="86"/>
-      <c r="C8" s="233" t="s">
+      <c r="C8" s="236" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="235"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="238"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="86"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="237"/>
-      <c r="F9" s="237"/>
-      <c r="G9" s="237"/>
-      <c r="H9" s="238"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="241"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="86"/>
-      <c r="C10" s="237"/>
-      <c r="D10" s="237"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="238"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="241"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" thickBot="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="240"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="243"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" thickBot="1">
       <c r="B13" s="77" t="s">
@@ -10775,10 +10797,10 @@
         <v>150</v>
       </c>
       <c r="E30" s="124"/>
-      <c r="F30" s="228" t="s">
+      <c r="F30" s="234" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="229"/>
+      <c r="G30" s="235"/>
       <c r="H30" s="125" t="s">
         <v>155</v>
       </c>
@@ -10799,22 +10821,16 @@
         <v>150</v>
       </c>
       <c r="E33" s="124"/>
-      <c r="F33" s="228" t="s">
+      <c r="F33" s="234" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="229"/>
+      <c r="G33" s="235"/>
       <c r="H33" s="125" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -10823,6 +10839,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10864,69 +10886,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="253"/>
-      <c r="E3" s="254"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="253" t="s">
+      <c r="G3" s="244" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="255"/>
+      <c r="H3" s="246"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="245"/>
-      <c r="E4" s="246"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="245" t="s">
+      <c r="G4" s="247" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="247"/>
+      <c r="H4" s="249"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="245"/>
-      <c r="E5" s="246"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="248"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="245"/>
-      <c r="H5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="249"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="245"/>
-      <c r="E6" s="246"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="248"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="245"/>
-      <c r="H6" s="247"/>
+      <c r="G6" s="247"/>
+      <c r="H6" s="249"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="245" t="s">
+      <c r="D7" s="247" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="246"/>
+      <c r="E7" s="248"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="249"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room_type(</v>
@@ -10934,41 +10956,41 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="11"/>
-      <c r="C8" s="248" t="s">
+      <c r="C8" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="248"/>
-      <c r="H8" s="249"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="252"/>
     </row>
     <row r="9" spans="2:12" ht="12" customHeight="1">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="250"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="253"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1">
       <c r="B10" s="11"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="250"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="253"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="252"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="255"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -11261,10 +11283,10 @@
         <v>42</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="212" t="s">
+      <c r="F33" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="244"/>
+      <c r="G33" s="250"/>
       <c r="H33" s="57" t="s">
         <v>50</v>
       </c>
@@ -11285,22 +11307,16 @@
         <v>42</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="212" t="s">
+      <c r="F36" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="244"/>
+      <c r="G36" s="250"/>
       <c r="H36" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="D6:E6"/>
@@ -11309,6 +11325,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11349,69 +11371,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room(</v>
@@ -11419,41 +11441,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -11729,10 +11751,10 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="212" t="s">
+      <c r="F32" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="213"/>
+      <c r="G32" s="219"/>
       <c r="H32" s="57" t="s">
         <v>50</v>
       </c>
@@ -11753,22 +11775,16 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="212" t="s">
+      <c r="F35" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="213"/>
+      <c r="G35" s="219"/>
       <c r="H35" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="D6:E6"/>
@@ -11777,6 +11793,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Database/DefineTable.xlsx
+++ b/Database/DefineTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="257">
   <si>
     <r>
       <rPr>
@@ -5222,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -5772,8 +5772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>

--- a/Database/DefineTable.xlsx
+++ b/Database/DefineTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="259">
   <si>
     <r>
       <rPr>
@@ -1635,6 +1635,12 @@
   </si>
   <si>
     <t>date_out</t>
+  </si>
+  <si>
+    <t>check_out_flag</t>
+  </si>
+  <si>
+    <t>check_in_flag</t>
   </si>
 </sst>
 </file>
@@ -3391,6 +3397,90 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3403,15 +3493,12 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3454,94 +3541,10 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3551,12 +3554,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3583,13 +3580,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3599,12 +3602,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3631,13 +3628,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3647,9 +3647,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3666,6 +3663,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4013,191 +4019,191 @@
   <sheetData>
     <row r="1" spans="2:53" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:53">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="196" t="s">
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="173" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="199" t="s">
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="176" t="s">
         <v>169</v>
       </c>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202" t="s">
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="169" t="s">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="180"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="170"/>
-      <c r="AK2" s="170"/>
-      <c r="AL2" s="170"/>
-      <c r="AM2" s="170"/>
-      <c r="AN2" s="170"/>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="185" t="s">
+      <c r="AJ2" s="183"/>
+      <c r="AK2" s="183"/>
+      <c r="AL2" s="183"/>
+      <c r="AM2" s="183"/>
+      <c r="AN2" s="183"/>
+      <c r="AO2" s="184"/>
+      <c r="AP2" s="180" t="s">
         <v>164</v>
       </c>
-      <c r="AQ2" s="185"/>
-      <c r="AR2" s="185"/>
-      <c r="AS2" s="185"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="169">
+      <c r="AQ2" s="180"/>
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="181"/>
+      <c r="AU2" s="182">
         <v>42892</v>
       </c>
-      <c r="AV2" s="170"/>
-      <c r="AW2" s="170"/>
-      <c r="AX2" s="170"/>
-      <c r="AY2" s="170"/>
-      <c r="AZ2" s="170"/>
-      <c r="BA2" s="171"/>
+      <c r="AV2" s="183"/>
+      <c r="AW2" s="183"/>
+      <c r="AX2" s="183"/>
+      <c r="AY2" s="183"/>
+      <c r="AZ2" s="183"/>
+      <c r="BA2" s="198"/>
     </row>
     <row r="3" spans="2:53">
-      <c r="B3" s="190"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="172" t="s">
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="199" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175" t="s">
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="178" t="s">
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="179"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="181"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="182"/>
-      <c r="AL3" s="182"/>
-      <c r="AM3" s="182"/>
-      <c r="AN3" s="182"/>
-      <c r="AO3" s="183"/>
-      <c r="AP3" s="179" t="s">
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="206"/>
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="208"/>
+      <c r="AJ3" s="209"/>
+      <c r="AK3" s="209"/>
+      <c r="AL3" s="209"/>
+      <c r="AM3" s="209"/>
+      <c r="AN3" s="209"/>
+      <c r="AO3" s="210"/>
+      <c r="AP3" s="206" t="s">
         <v>168</v>
       </c>
-      <c r="AQ3" s="179"/>
-      <c r="AR3" s="179"/>
-      <c r="AS3" s="179"/>
-      <c r="AT3" s="180"/>
-      <c r="AU3" s="181"/>
-      <c r="AV3" s="182"/>
-      <c r="AW3" s="182"/>
-      <c r="AX3" s="182"/>
-      <c r="AY3" s="182"/>
-      <c r="AZ3" s="182"/>
-      <c r="BA3" s="184"/>
+      <c r="AQ3" s="206"/>
+      <c r="AR3" s="206"/>
+      <c r="AS3" s="206"/>
+      <c r="AT3" s="207"/>
+      <c r="AU3" s="208"/>
+      <c r="AV3" s="209"/>
+      <c r="AW3" s="209"/>
+      <c r="AX3" s="209"/>
+      <c r="AY3" s="209"/>
+      <c r="AZ3" s="209"/>
+      <c r="BA3" s="211"/>
     </row>
     <row r="4" spans="2:53" ht="15.75" thickBot="1">
-      <c r="B4" s="193"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="207" t="str">
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="188" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>ERD</v>
       </c>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="208"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="210"/>
-      <c r="AD4" s="164"/>
-      <c r="AE4" s="164"/>
-      <c r="AF4" s="164"/>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="166"/>
-      <c r="AJ4" s="167"/>
-      <c r="AK4" s="167"/>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="167"/>
-      <c r="AN4" s="167"/>
-      <c r="AO4" s="211"/>
-      <c r="AP4" s="164"/>
-      <c r="AQ4" s="164"/>
-      <c r="AR4" s="164"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="165"/>
-      <c r="AU4" s="166"/>
-      <c r="AV4" s="167"/>
-      <c r="AW4" s="167"/>
-      <c r="AX4" s="167"/>
-      <c r="AY4" s="167"/>
-      <c r="AZ4" s="167"/>
-      <c r="BA4" s="168"/>
+      <c r="Q4" s="189"/>
+      <c r="R4" s="189"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="189"/>
+      <c r="V4" s="189"/>
+      <c r="W4" s="189"/>
+      <c r="X4" s="189"/>
+      <c r="Y4" s="189"/>
+      <c r="Z4" s="189"/>
+      <c r="AA4" s="189"/>
+      <c r="AB4" s="190"/>
+      <c r="AC4" s="191"/>
+      <c r="AD4" s="192"/>
+      <c r="AE4" s="192"/>
+      <c r="AF4" s="192"/>
+      <c r="AG4" s="192"/>
+      <c r="AH4" s="193"/>
+      <c r="AI4" s="194"/>
+      <c r="AJ4" s="195"/>
+      <c r="AK4" s="195"/>
+      <c r="AL4" s="195"/>
+      <c r="AM4" s="195"/>
+      <c r="AN4" s="195"/>
+      <c r="AO4" s="196"/>
+      <c r="AP4" s="192"/>
+      <c r="AQ4" s="192"/>
+      <c r="AR4" s="192"/>
+      <c r="AS4" s="192"/>
+      <c r="AT4" s="193"/>
+      <c r="AU4" s="194"/>
+      <c r="AV4" s="195"/>
+      <c r="AW4" s="195"/>
+      <c r="AX4" s="195"/>
+      <c r="AY4" s="195"/>
+      <c r="AZ4" s="195"/>
+      <c r="BA4" s="197"/>
     </row>
     <row r="7" spans="2:53">
       <c r="B7" t="s">
@@ -4206,15 +4212,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="AU2:BA2"/>
@@ -4225,6 +4222,15 @@
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AU3:BA3"/>
     <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4267,69 +4273,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room_accessory(</v>
@@ -4337,41 +4343,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -4641,10 +4647,10 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="218" t="s">
+      <c r="F32" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="219"/>
+      <c r="G32" s="213"/>
       <c r="H32" s="57" t="s">
         <v>50</v>
       </c>
@@ -4665,22 +4671,16 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="219"/>
+      <c r="G35" s="213"/>
       <c r="H35" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="D6:E6"/>
@@ -4689,6 +4689,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4729,69 +4735,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_guest(</v>
@@ -4799,41 +4805,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5165,10 +5171,10 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="219"/>
+      <c r="G35" s="213"/>
       <c r="H35" s="57" t="s">
         <v>50</v>
       </c>
@@ -5189,16 +5195,22 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="218" t="s">
+      <c r="F38" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="219"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="D6:E6"/>
@@ -5207,12 +5219,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5222,8 +5228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E26"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -5253,69 +5259,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_reservation(</v>
@@ -5323,41 +5329,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5558,7 +5564,7 @@
         <v xml:space="preserve">    number_of_children integer,</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="2:12" s="33" customFormat="1" ht="20.25" customHeight="1">
       <c r="B23" s="129">
         <v>9</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v xml:space="preserve">    note varchar(200),</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="2:12" s="33" customFormat="1" ht="20.25" customHeight="1">
       <c r="B24" s="129">
         <v>10</v>
       </c>
@@ -5714,10 +5720,10 @@
         <v>42</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="218" t="s">
+      <c r="F36" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="219"/>
+      <c r="G36" s="213"/>
       <c r="H36" s="57" t="s">
         <v>50</v>
       </c>
@@ -5738,16 +5744,22 @@
         <v>42</v>
       </c>
       <c r="E39" s="56"/>
-      <c r="F39" s="218" t="s">
+      <c r="F39" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="219"/>
+      <c r="G39" s="213"/>
       <c r="H39" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D6:E6"/>
@@ -5756,12 +5768,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5770,10 +5776,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L38"/>
+  <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -5803,69 +5809,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_reservation_detail(</v>
@@ -5873,41 +5879,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5957,7 +5963,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="20"/>
       <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15:L25" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <f t="shared" ref="L15:L28" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
         <v xml:space="preserve">    id serial PRIMARY KEY NOT NULL,</v>
       </c>
     </row>
@@ -6002,7 +6008,9 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>4</v>
+      </c>
       <c r="C18" s="156"/>
       <c r="D18" s="156" t="s">
         <v>255</v>
@@ -6016,7 +6024,9 @@
       <c r="I18" s="20"/>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="15"/>
+      <c r="B19" s="15">
+        <v>5</v>
+      </c>
       <c r="C19" s="156"/>
       <c r="D19" s="156" t="s">
         <v>256</v>
@@ -6031,7 +6041,7 @@
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
       <c r="B20" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="156"/>
       <c r="D20" s="156" t="s">
@@ -6051,7 +6061,7 @@
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
       <c r="B21" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="156"/>
       <c r="D21" s="156" t="s">
@@ -6071,7 +6081,7 @@
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
       <c r="B22" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="156"/>
       <c r="D22" s="156" t="s">
@@ -6091,7 +6101,7 @@
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
       <c r="B23" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="156"/>
       <c r="D23" s="156" t="s">
@@ -6110,15 +6120,13 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1">
-      <c r="B24" s="15">
-        <v>9</v>
-      </c>
+      <c r="B24" s="15"/>
       <c r="C24" s="156"/>
       <c r="D24" s="156" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E24" s="156" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F24" s="159"/>
       <c r="G24" s="157"/>
@@ -6126,59 +6134,88 @@
       <c r="I24" s="20"/>
       <c r="L24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    update_ymd timestamp,</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B25" s="146">
+        <v xml:space="preserve">    note varchar(200),</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15" customHeight="1">
+      <c r="B25" s="15">
         <v>10</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="147" t="s">
-        <v>235</v>
-      </c>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="149"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="159"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="158"/>
       <c r="I25" s="20"/>
       <c r="L25" s="3" t="str">
         <f t="shared" si="0"/>
+        <v xml:space="preserve">    check_in_flag integer,</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15" customHeight="1">
+      <c r="B26" s="15">
+        <v>11</v>
+      </c>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="159"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="20"/>
+      <c r="L26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    check_out_flag integer,</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="15" customHeight="1">
+      <c r="B27" s="15">
+        <v>12</v>
+      </c>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="159"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="20"/>
+      <c r="L27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    update_ymd timestamp,</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15" customHeight="1" thickBot="1">
+      <c r="B28" s="15">
+        <v>13</v>
+      </c>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="147" t="s">
+        <v>235</v>
+      </c>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="20"/>
+      <c r="L28" s="3" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve">    create_ymd timestamp,</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="L26" s="3" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-    </row>
-    <row r="28" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B28" s="133"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
     </row>
     <row r="29" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
       <c r="B29" s="133"/>
@@ -6188,58 +6225,65 @@
       <c r="F29" s="134"/>
       <c r="G29" s="136"/>
       <c r="H29" s="136"/>
-    </row>
-    <row r="31" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B32" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="140"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>19</v>
-      </c>
+      <c r="L29" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+    </row>
+    <row r="31" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+    </row>
+    <row r="32" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
     </row>
     <row r="34" spans="2:8" ht="12.75" thickBot="1">
       <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="12.75" thickBot="1">
       <c r="B35" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D35" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="218" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="219"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="54" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="57" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="12.75" thickBot="1">
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" thickBot="1">
@@ -6253,30 +6297,54 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="218" t="s">
+      <c r="F38" s="212" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="213"/>
+      <c r="H38" s="57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15" thickBot="1">
+      <c r="B41" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="56"/>
+      <c r="F41" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="219"/>
-      <c r="H38" s="57" t="s">
+      <c r="G41" s="213"/>
+      <c r="H41" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6318,69 +6386,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_payment_type(</v>
@@ -6388,41 +6456,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -6622,10 +6690,10 @@
         <v>42</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="218" t="s">
+      <c r="F28" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="219"/>
+      <c r="G28" s="213"/>
       <c r="H28" s="57" t="s">
         <v>50</v>
       </c>
@@ -6646,22 +6714,16 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="218" t="s">
+      <c r="F31" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="219"/>
+      <c r="G31" s="213"/>
       <c r="H31" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="D6:E6"/>
@@ -6670,6 +6732,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6710,69 +6778,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_invoice(</v>
@@ -6780,41 +6848,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -7136,10 +7204,10 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="218" t="s">
+      <c r="F34" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="219"/>
+      <c r="G34" s="213"/>
       <c r="H34" s="57" t="s">
         <v>50</v>
       </c>
@@ -7160,22 +7228,16 @@
         <v>42</v>
       </c>
       <c r="E37" s="56"/>
-      <c r="F37" s="218" t="s">
+      <c r="F37" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="219"/>
+      <c r="G37" s="213"/>
       <c r="H37" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="D6:E6"/>
@@ -7184,6 +7246,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7224,69 +7292,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>253</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_invoice_detail(</v>
@@ -7294,41 +7362,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -7622,10 +7690,10 @@
         <v>42</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="218" t="s">
+      <c r="F33" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="219"/>
+      <c r="G33" s="213"/>
       <c r="H33" s="57" t="s">
         <v>50</v>
       </c>
@@ -7646,22 +7714,16 @@
         <v>42</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="218" t="s">
+      <c r="F36" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="219"/>
+      <c r="G36" s="213"/>
       <c r="H36" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="D6:E6"/>
@@ -7670,6 +7732,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7710,69 +7778,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl__status(</v>
@@ -7780,41 +7848,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -8048,10 +8116,10 @@
         <v>42</v>
       </c>
       <c r="E30" s="56"/>
-      <c r="F30" s="218" t="s">
+      <c r="F30" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="219"/>
+      <c r="G30" s="213"/>
       <c r="H30" s="57" t="s">
         <v>50</v>
       </c>
@@ -8072,16 +8140,22 @@
         <v>42</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="218" t="s">
+      <c r="F33" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="219"/>
+      <c r="G33" s="213"/>
       <c r="H33" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -8090,12 +8164,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8139,73 +8207,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="216"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="214" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="216"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_function(</v>
@@ -8213,41 +8281,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -8582,10 +8650,10 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="218" t="s">
+      <c r="F31" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="219"/>
+      <c r="G31" s="213"/>
       <c r="H31" s="57" t="s">
         <v>50</v>
       </c>
@@ -8606,16 +8674,22 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="218" t="s">
+      <c r="F34" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="219"/>
+      <c r="G34" s="213"/>
       <c r="H34" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -8624,12 +8698,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8674,73 +8742,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="216"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="216"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_permission(</v>
@@ -8748,41 +8816,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -9122,10 +9190,10 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="218" t="s">
+      <c r="F31" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="219"/>
+      <c r="G31" s="213"/>
       <c r="H31" s="57" t="s">
         <v>50</v>
       </c>
@@ -9146,16 +9214,22 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="218" t="s">
+      <c r="F34" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="219"/>
+      <c r="G34" s="213"/>
       <c r="H34" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -9164,12 +9238,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9214,73 +9282,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="216"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="214" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="216"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_group(</v>
@@ -9288,41 +9356,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -9607,10 +9675,10 @@
         <v>42</v>
       </c>
       <c r="E29" s="56"/>
-      <c r="F29" s="218" t="s">
+      <c r="F29" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="219"/>
+      <c r="G29" s="213"/>
       <c r="H29" s="57" t="s">
         <v>50</v>
       </c>
@@ -9631,16 +9699,22 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="218" t="s">
+      <c r="F32" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="219"/>
+      <c r="G32" s="213"/>
       <c r="H32" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D6:E6"/>
@@ -9649,12 +9723,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9699,73 +9767,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="216"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="216"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_user(</v>
@@ -9773,41 +9841,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -10284,10 +10352,10 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="218" t="s">
+      <c r="F38" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="219"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="57" t="s">
         <v>50</v>
       </c>
@@ -10308,16 +10376,22 @@
         <v>42</v>
       </c>
       <c r="E41" s="56"/>
-      <c r="F41" s="218" t="s">
+      <c r="F41" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="219"/>
+      <c r="G41" s="213"/>
       <c r="H41" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="D6:E6"/>
@@ -10326,12 +10400,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10376,73 +10444,73 @@
       <c r="C3" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="228"/>
-      <c r="E3" s="229"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="228" t="s">
+      <c r="G3" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="243"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="B4" s="82"/>
       <c r="C4" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="231"/>
       <c r="F4" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="B5" s="82"/>
       <c r="C5" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="231" t="s">
+      <c r="D5" s="230" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="232"/>
+      <c r="E5" s="231"/>
       <c r="F5" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="233"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="232"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="B6" s="82"/>
       <c r="C6" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="231" t="s">
+      <c r="D6" s="230" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="232"/>
+      <c r="E6" s="231"/>
       <c r="F6" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="233"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="232"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="B7" s="82"/>
       <c r="C7" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="231" t="s">
+      <c r="D7" s="230" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="232"/>
+      <c r="E7" s="231"/>
       <c r="F7" s="85"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="233"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="232"/>
       <c r="L7" s="76" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_user_group(</v>
@@ -10450,41 +10518,41 @@
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="B8" s="86"/>
-      <c r="C8" s="236" t="s">
+      <c r="C8" s="233" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="238"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="235"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="86"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="241"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="238"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="86"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="241"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" thickBot="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="242"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="243"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="240"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" thickBot="1">
       <c r="B13" s="77" t="s">
@@ -10797,10 +10865,10 @@
         <v>150</v>
       </c>
       <c r="E30" s="124"/>
-      <c r="F30" s="234" t="s">
+      <c r="F30" s="228" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="235"/>
+      <c r="G30" s="229"/>
       <c r="H30" s="125" t="s">
         <v>155</v>
       </c>
@@ -10821,16 +10889,22 @@
         <v>150</v>
       </c>
       <c r="E33" s="124"/>
-      <c r="F33" s="234" t="s">
+      <c r="F33" s="228" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="235"/>
+      <c r="G33" s="229"/>
       <c r="H33" s="125" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -10839,12 +10913,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10886,69 +10954,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="245"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="254"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="244" t="s">
+      <c r="G3" s="253" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="246"/>
+      <c r="H3" s="255"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="246"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="247" t="s">
+      <c r="G4" s="245" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="249"/>
+      <c r="H4" s="247"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="247"/>
-      <c r="E5" s="248"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="246"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="247"/>
-      <c r="H5" s="249"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="247"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="247"/>
-      <c r="E6" s="248"/>
+      <c r="D6" s="245"/>
+      <c r="E6" s="246"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="247"/>
-      <c r="H6" s="249"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="247"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="247" t="s">
+      <c r="D7" s="245" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="248"/>
+      <c r="E7" s="246"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="249"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="247"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room_type(</v>
@@ -10956,41 +11024,41 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="11"/>
-      <c r="C8" s="251" t="s">
+      <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="252"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="249"/>
     </row>
     <row r="9" spans="2:12" ht="12" customHeight="1">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="253"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="250"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1">
       <c r="B10" s="11"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="253"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="220"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="250"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="254"/>
-      <c r="D11" s="254"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="255"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="252"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -11283,10 +11351,10 @@
         <v>42</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="218" t="s">
+      <c r="F33" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="250"/>
+      <c r="G33" s="244"/>
       <c r="H33" s="57" t="s">
         <v>50</v>
       </c>
@@ -11307,16 +11375,22 @@
         <v>42</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="218" t="s">
+      <c r="F36" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="250"/>
+      <c r="G36" s="244"/>
       <c r="H36" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="D6:E6"/>
@@ -11325,12 +11399,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11371,69 +11439,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room(</v>
@@ -11441,41 +11509,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -11751,10 +11819,10 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="218" t="s">
+      <c r="F32" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="219"/>
+      <c r="G32" s="213"/>
       <c r="H32" s="57" t="s">
         <v>50</v>
       </c>
@@ -11775,16 +11843,22 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="219"/>
+      <c r="G35" s="213"/>
       <c r="H35" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="D6:E6"/>
@@ -11793,12 +11867,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Database/DefineTable.xlsx
+++ b/Database/DefineTable.xlsx
@@ -5778,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -10923,8 +10923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D18:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -11408,7 +11408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>

--- a/Database/DefineTable.xlsx
+++ b/Database/DefineTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="6" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">ERD!$A$1:$BB$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="260">
   <si>
     <r>
       <rPr>
@@ -1592,18 +1593,9 @@
     <t>payment_type_id</t>
   </si>
   <si>
-    <t>accountant_id</t>
-  </si>
-  <si>
-    <t>receptionist_id</t>
-  </si>
-  <si>
     <t>tax_code</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>invoice_id</t>
   </si>
   <si>
@@ -1641,6 +1633,18 @@
   </si>
   <si>
     <t>check_in_flag</t>
+  </si>
+  <si>
+    <t>updater_nm</t>
+  </si>
+  <si>
+    <t>payment_flag</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>item_type</t>
   </si>
 </sst>
 </file>
@@ -4958,7 +4962,7 @@
     </row>
     <row r="19" spans="2:12" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="23">
-        <f t="shared" ref="B19:B20" si="1">B18+1</f>
+        <f>B18+1</f>
         <v>5</v>
       </c>
       <c r="C19" s="24"/>
@@ -4978,7 +4982,7 @@
     </row>
     <row r="20" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="23">
-        <f t="shared" si="1"/>
+        <f>B19+1</f>
         <v>6</v>
       </c>
       <c r="C20" s="30"/>
@@ -5486,7 +5490,7 @@
     </row>
     <row r="19" spans="2:12" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="B19" s="23">
-        <f t="shared" ref="B19:B20" si="1">B18+1</f>
+        <f>B18+1</f>
         <v>5</v>
       </c>
       <c r="C19" s="24"/>
@@ -5508,7 +5512,7 @@
     </row>
     <row r="20" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
       <c r="B20" s="23">
-        <f t="shared" si="1"/>
+        <f>B19+1</f>
         <v>6</v>
       </c>
       <c r="C20" s="30"/>
@@ -5778,7 +5782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E28"/>
     </sheetView>
   </sheetViews>
@@ -6013,7 +6017,7 @@
       </c>
       <c r="C18" s="156"/>
       <c r="D18" s="156" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E18" s="156" t="s">
         <v>204</v>
@@ -6029,7 +6033,7 @@
       </c>
       <c r="C19" s="156"/>
       <c r="D19" s="156" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E19" s="156" t="s">
         <v>204</v>
@@ -6045,7 +6049,7 @@
       </c>
       <c r="C20" s="156"/>
       <c r="D20" s="156" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E20" s="156" t="s">
         <v>195</v>
@@ -6065,7 +6069,7 @@
       </c>
       <c r="C21" s="156"/>
       <c r="D21" s="156" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E21" s="156" t="s">
         <v>216</v>
@@ -6085,7 +6089,7 @@
       </c>
       <c r="C22" s="156"/>
       <c r="D22" s="156" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E22" s="156" t="s">
         <v>179</v>
@@ -6105,7 +6109,7 @@
       </c>
       <c r="C23" s="156"/>
       <c r="D23" s="156" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E23" s="156" t="s">
         <v>195</v>
@@ -6143,7 +6147,7 @@
       </c>
       <c r="C25" s="156"/>
       <c r="D25" s="156" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E25" s="156" t="s">
         <v>180</v>
@@ -6163,7 +6167,7 @@
       </c>
       <c r="C26" s="156"/>
       <c r="D26" s="156" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E26" s="156" t="s">
         <v>180</v>
@@ -6540,7 +6544,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="20"/>
       <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15:L18" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <f>"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
         <v xml:space="preserve">    id serial PRIMARY KEY NOT NULL,</v>
       </c>
     </row>
@@ -6564,7 +6568,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;D16&amp;" "&amp;E16 &amp; IF(F16="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F16="Yes", "  NOT NULL,", ","))</f>
         <v xml:space="preserve">    type_name varchar(50)  NOT NULL,</v>
       </c>
     </row>
@@ -6586,7 +6590,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="20"/>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;D17&amp;" "&amp;E17 &amp; IF(F17="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F17="Yes", "  NOT NULL,", ","))</f>
         <v xml:space="preserve">    create_ymd timestamp,</v>
       </c>
     </row>
@@ -6606,7 +6610,7 @@
       <c r="H18" s="162"/>
       <c r="I18" s="20"/>
       <c r="L18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>"    "&amp;D18&amp;" "&amp;E18 &amp; IF(F18="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F18="Yes", "  NOT NULL,", ","))</f>
         <v xml:space="preserve">    update_ymd timestamp,</v>
       </c>
     </row>
@@ -6744,6 +6748,538 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" style="3"/>
+    <col min="13" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="225" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="227"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="214" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="216"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="214" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="215"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
+      <c r="L7" s="3" t="str">
+        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
+        <v>CREATE TABLE tbl_invoice(</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="14.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="217" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="11"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="11"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
+    </row>
+    <row r="11" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
+    </row>
+    <row r="13" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1">
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="3" t="str">
+        <f t="shared" ref="L15:L25" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <v xml:space="preserve">    id serial PRIMARY KEY NOT NULL,</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1">
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    payment_type_id integer  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1">
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="20"/>
+      <c r="L17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    reservation_id integer  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15" customHeight="1">
+      <c r="B18" s="15">
+        <v>4</v>
+      </c>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="157"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="20"/>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    guest_id integer  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15" customHeight="1">
+      <c r="B19" s="15">
+        <v>5</v>
+      </c>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="159"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="20"/>
+      <c r="L19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    tax_code varchar(10),</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15" customHeight="1">
+      <c r="B20" s="15">
+        <v>6</v>
+      </c>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="159"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="20"/>
+      <c r="L20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    amount_total integer,</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15" customHeight="1">
+      <c r="B21" s="15">
+        <v>7</v>
+      </c>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="159"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="20"/>
+      <c r="L21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    payment_flag integer,</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15" customHeight="1">
+      <c r="B22" s="15">
+        <v>8</v>
+      </c>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="159"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="20"/>
+      <c r="L22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    update_ymd timestamp,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15" customHeight="1">
+      <c r="B23" s="15">
+        <v>9</v>
+      </c>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="159"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="20"/>
+      <c r="L23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    updater_nm varchar(50),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15" customHeight="1">
+      <c r="B24" s="15">
+        <v>10</v>
+      </c>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" s="159"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="20"/>
+      <c r="L24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    create_ymd timestamp,</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15" customHeight="1" thickBot="1">
+      <c r="B25" s="15">
+        <v>11</v>
+      </c>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="147"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    creater_nm varchar(50),</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="L26" s="3" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="133"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+    </row>
+    <row r="28" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="133"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+    </row>
+    <row r="29" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+    </row>
+    <row r="31" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B32" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="140"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15" thickBot="1">
+      <c r="B35" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="212" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="213"/>
+      <c r="H35" s="57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15" thickBot="1">
+      <c r="B38" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="212" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="213"/>
+      <c r="H38" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L37"/>
   <sheetViews>
@@ -6835,7 +7371,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="214" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E7" s="215"/>
       <c r="F7" s="10"/>
@@ -6843,7 +7379,7 @@
       <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
-        <v>CREATE TABLE tbl_invoice(</v>
+        <v>CREATE TABLE tbl_invoice_detail(</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.25">
@@ -6942,7 +7478,7 @@
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>180</v>
@@ -6955,7 +7491,7 @@
       <c r="I16" s="20"/>
       <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    payment_type_id integer  NOT NULL,</v>
+        <v xml:space="preserve">    invoice_id integer  NOT NULL,</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1">
@@ -6964,43 +7500,31 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+        <v>177</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="20"/>
-      <c r="L17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    accountant_id varchar(20)  NOT NULL,</v>
-      </c>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1">
       <c r="B18" s="15">
         <v>4</v>
       </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="156" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="157"/>
-      <c r="H18" s="158"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="20"/>
-      <c r="L18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    receptionist_id varchar(20)  NOT NULL,</v>
-      </c>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1">
       <c r="B19" s="15">
@@ -7008,20 +7532,18 @@
       </c>
       <c r="C19" s="156"/>
       <c r="D19" s="156" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="E19" s="156" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>178</v>
-      </c>
+      <c r="F19" s="159"/>
       <c r="G19" s="157"/>
       <c r="H19" s="158"/>
       <c r="I19" s="20"/>
       <c r="L19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    guest_id integer  NOT NULL,</v>
+        <v xml:space="preserve">    quantity integer,</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="15" customHeight="1">
@@ -7030,10 +7552,10 @@
       </c>
       <c r="C20" s="156"/>
       <c r="D20" s="156" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="F20" s="159"/>
       <c r="G20" s="157"/>
@@ -7041,7 +7563,7 @@
       <c r="I20" s="20"/>
       <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    tax_code varchar(10),</v>
+        <v xml:space="preserve">    price integer,</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
@@ -7050,19 +7572,15 @@
       </c>
       <c r="C21" s="156"/>
       <c r="D21" s="156" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="E21" s="156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F21" s="159"/>
       <c r="G21" s="157"/>
       <c r="H21" s="158"/>
       <c r="I21" s="20"/>
-      <c r="L21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    amount numeric(11,2),</v>
-      </c>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
       <c r="B22" s="15">
@@ -7070,10 +7588,10 @@
       </c>
       <c r="C22" s="156"/>
       <c r="D22" s="156" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="E22" s="156" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="F22" s="159"/>
       <c r="G22" s="157"/>
@@ -7081,7 +7599,7 @@
       <c r="I22" s="20"/>
       <c r="L22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    update_ymd timestamp,</v>
+        <v xml:space="preserve">    amount_total integer,</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="15" customHeight="1">
@@ -7090,7 +7608,7 @@
       </c>
       <c r="C23" s="156"/>
       <c r="D23" s="156" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E23" s="156" t="s">
         <v>235</v>
@@ -7101,27 +7619,27 @@
       <c r="I23" s="20"/>
       <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    create_ymd timestamp,</v>
+        <v xml:space="preserve">    update_ymd timestamp,</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B24" s="146">
+      <c r="B24" s="15">
         <v>10</v>
       </c>
       <c r="C24" s="147"/>
       <c r="D24" s="147" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="E24" s="147" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="147"/>
+        <v>235</v>
+      </c>
+      <c r="F24" s="160"/>
       <c r="G24" s="148"/>
       <c r="H24" s="149"/>
       <c r="I24" s="20"/>
       <c r="L24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    creater_nm varchar(50),</v>
+        <v xml:space="preserve">    create_ymd timestamp,</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
@@ -7240,492 +7758,6 @@
   <mergeCells count="14">
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="10.28515625" style="3"/>
-    <col min="13" max="13" width="7" style="3" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.28515625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="14.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="225" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="227"/>
-    </row>
-    <row r="4" spans="2:12" ht="14.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="214" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="216"/>
-    </row>
-    <row r="5" spans="2:12" ht="14.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
-    </row>
-    <row r="6" spans="2:12" ht="14.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
-    </row>
-    <row r="7" spans="2:12" ht="14.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="214" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7" s="215"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
-      <c r="L7" s="3" t="str">
-        <f>"CREATE TABLE "&amp;D7&amp;"("</f>
-        <v>CREATE TABLE tbl_invoice_detail(</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="14.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
-    </row>
-    <row r="11" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
-    </row>
-    <row r="13" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15" customHeight="1">
-      <c r="B15" s="15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-      <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15:L23" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
-        <v xml:space="preserve">    id serial PRIMARY KEY NOT NULL,</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1">
-      <c r="B16" s="15">
-        <v>2</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="2:12" ht="15" customHeight="1">
-      <c r="B17" s="15">
-        <v>3</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="L17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    invoice_id integer  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15" customHeight="1">
-      <c r="B18" s="15">
-        <v>4</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="20"/>
-      <c r="L18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    description varchar(100),</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15" customHeight="1">
-      <c r="B19" s="15">
-        <v>5</v>
-      </c>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="156" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="159"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="20"/>
-      <c r="L19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    quantity integer,</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15" customHeight="1">
-      <c r="B20" s="15">
-        <v>6</v>
-      </c>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="156" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="159"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="20"/>
-      <c r="L20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    price numeric(11,2),</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15" customHeight="1">
-      <c r="B21" s="15">
-        <v>7</v>
-      </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="156" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="159"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="20"/>
-      <c r="L21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    amount_total numeric(11,2),</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15" customHeight="1">
-      <c r="B22" s="15">
-        <v>8</v>
-      </c>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="156" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" s="159"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="20"/>
-      <c r="L22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    update_ymd timestamp,</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B23" s="146">
-        <v>9</v>
-      </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" s="147" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="160"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="20"/>
-      <c r="L23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    create_ymd timestamp,</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B24" s="133"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="L24" s="3" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-    </row>
-    <row r="26" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-    </row>
-    <row r="27" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-    </row>
-    <row r="29" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B30" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="151" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="140"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15" thickBot="1">
-      <c r="B33" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="151" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="212" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="213"/>
-      <c r="H33" s="57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15" thickBot="1">
-      <c r="B36" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="151" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="212" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="213"/>
-      <c r="H36" s="57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F36:G36"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:E7"/>
@@ -9448,7 +9480,7 @@
     </row>
     <row r="16" spans="2:12" s="68" customFormat="1">
       <c r="B16" s="64">
-        <f>B15+1</f>
+        <f t="shared" ref="B16:B22" si="1">B15+1</f>
         <v>2</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -9472,7 +9504,7 @@
     </row>
     <row r="17" spans="2:12" s="68" customFormat="1">
       <c r="B17" s="64">
-        <f>B16+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C17" s="69" t="s">
@@ -9498,7 +9530,7 @@
     </row>
     <row r="18" spans="2:12" s="68" customFormat="1">
       <c r="B18" s="64">
-        <f t="shared" ref="B18:B21" si="1">B17+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C18" s="65" t="s">
@@ -9592,7 +9624,7 @@
     </row>
     <row r="22" spans="2:12" s="68" customFormat="1" ht="12.75" thickBot="1">
       <c r="B22" s="71">
-        <f>B21+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C22" s="72" t="s">
@@ -10120,7 +10152,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>179</v>

--- a/Database/DefineTable.xlsx
+++ b/Database/DefineTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">ERD!$A$1:$BB$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3401,6 +3400,75 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3449,18 +3517,6 @@
     <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3485,79 +3541,31 @@
     <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3584,28 +3592,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3632,25 +3640,25 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3667,15 +3675,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4023,191 +4022,191 @@
   <sheetData>
     <row r="1" spans="2:53" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:53">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="187" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="173" t="s">
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="196" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176" t="s">
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199" t="s">
         <v>169</v>
       </c>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="177"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="179" t="s">
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="200"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="200"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202" t="s">
         <v>163</v>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="180"/>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="182" t="s">
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="183"/>
-      <c r="AK2" s="183"/>
-      <c r="AL2" s="183"/>
-      <c r="AM2" s="183"/>
-      <c r="AN2" s="183"/>
-      <c r="AO2" s="184"/>
-      <c r="AP2" s="180" t="s">
+      <c r="AJ2" s="170"/>
+      <c r="AK2" s="170"/>
+      <c r="AL2" s="170"/>
+      <c r="AM2" s="170"/>
+      <c r="AN2" s="170"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="AQ2" s="180"/>
-      <c r="AR2" s="180"/>
-      <c r="AS2" s="180"/>
-      <c r="AT2" s="181"/>
-      <c r="AU2" s="182">
+      <c r="AQ2" s="185"/>
+      <c r="AR2" s="185"/>
+      <c r="AS2" s="185"/>
+      <c r="AT2" s="186"/>
+      <c r="AU2" s="169">
         <v>42892</v>
       </c>
-      <c r="AV2" s="183"/>
-      <c r="AW2" s="183"/>
-      <c r="AX2" s="183"/>
-      <c r="AY2" s="183"/>
-      <c r="AZ2" s="183"/>
-      <c r="BA2" s="198"/>
+      <c r="AV2" s="170"/>
+      <c r="AW2" s="170"/>
+      <c r="AX2" s="170"/>
+      <c r="AY2" s="170"/>
+      <c r="AZ2" s="170"/>
+      <c r="BA2" s="171"/>
     </row>
     <row r="3" spans="2:53">
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="199" t="s">
+      <c r="B3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="202" t="s">
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="204"/>
-      <c r="AC3" s="205" t="s">
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="AD3" s="206"/>
-      <c r="AE3" s="206"/>
-      <c r="AF3" s="206"/>
-      <c r="AG3" s="206"/>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="208"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
-      <c r="AL3" s="209"/>
-      <c r="AM3" s="209"/>
-      <c r="AN3" s="209"/>
-      <c r="AO3" s="210"/>
-      <c r="AP3" s="206" t="s">
+      <c r="AD3" s="179"/>
+      <c r="AE3" s="179"/>
+      <c r="AF3" s="179"/>
+      <c r="AG3" s="179"/>
+      <c r="AH3" s="180"/>
+      <c r="AI3" s="181"/>
+      <c r="AJ3" s="182"/>
+      <c r="AK3" s="182"/>
+      <c r="AL3" s="182"/>
+      <c r="AM3" s="182"/>
+      <c r="AN3" s="182"/>
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="179" t="s">
         <v>168</v>
       </c>
-      <c r="AQ3" s="206"/>
-      <c r="AR3" s="206"/>
-      <c r="AS3" s="206"/>
-      <c r="AT3" s="207"/>
-      <c r="AU3" s="208"/>
-      <c r="AV3" s="209"/>
-      <c r="AW3" s="209"/>
-      <c r="AX3" s="209"/>
-      <c r="AY3" s="209"/>
-      <c r="AZ3" s="209"/>
-      <c r="BA3" s="211"/>
+      <c r="AQ3" s="179"/>
+      <c r="AR3" s="179"/>
+      <c r="AS3" s="179"/>
+      <c r="AT3" s="180"/>
+      <c r="AU3" s="181"/>
+      <c r="AV3" s="182"/>
+      <c r="AW3" s="182"/>
+      <c r="AX3" s="182"/>
+      <c r="AY3" s="182"/>
+      <c r="AZ3" s="182"/>
+      <c r="BA3" s="184"/>
     </row>
     <row r="4" spans="2:53" ht="15.75" thickBot="1">
-      <c r="B4" s="170"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="187"/>
-      <c r="P4" s="188" t="str">
+      <c r="B4" s="193"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="207" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>ERD</v>
       </c>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="189"/>
-      <c r="S4" s="189"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="189"/>
-      <c r="V4" s="189"/>
-      <c r="W4" s="189"/>
-      <c r="X4" s="189"/>
-      <c r="Y4" s="189"/>
-      <c r="Z4" s="189"/>
-      <c r="AA4" s="189"/>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="191"/>
-      <c r="AD4" s="192"/>
-      <c r="AE4" s="192"/>
-      <c r="AF4" s="192"/>
-      <c r="AG4" s="192"/>
-      <c r="AH4" s="193"/>
-      <c r="AI4" s="194"/>
-      <c r="AJ4" s="195"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195"/>
-      <c r="AN4" s="195"/>
-      <c r="AO4" s="196"/>
-      <c r="AP4" s="192"/>
-      <c r="AQ4" s="192"/>
-      <c r="AR4" s="192"/>
-      <c r="AS4" s="192"/>
-      <c r="AT4" s="193"/>
-      <c r="AU4" s="194"/>
-      <c r="AV4" s="195"/>
-      <c r="AW4" s="195"/>
-      <c r="AX4" s="195"/>
-      <c r="AY4" s="195"/>
-      <c r="AZ4" s="195"/>
-      <c r="BA4" s="197"/>
+      <c r="Q4" s="208"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="208"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="208"/>
+      <c r="V4" s="208"/>
+      <c r="W4" s="208"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="208"/>
+      <c r="Z4" s="208"/>
+      <c r="AA4" s="208"/>
+      <c r="AB4" s="209"/>
+      <c r="AC4" s="210"/>
+      <c r="AD4" s="164"/>
+      <c r="AE4" s="164"/>
+      <c r="AF4" s="164"/>
+      <c r="AG4" s="164"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="166"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="167"/>
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="211"/>
+      <c r="AP4" s="164"/>
+      <c r="AQ4" s="164"/>
+      <c r="AR4" s="164"/>
+      <c r="AS4" s="164"/>
+      <c r="AT4" s="165"/>
+      <c r="AU4" s="166"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="167"/>
+      <c r="AX4" s="167"/>
+      <c r="AY4" s="167"/>
+      <c r="AZ4" s="167"/>
+      <c r="BA4" s="168"/>
     </row>
     <row r="7" spans="2:53">
       <c r="B7" t="s">
@@ -4216,6 +4215,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="AU2:BA2"/>
@@ -4226,15 +4234,6 @@
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AU3:BA3"/>
     <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4277,69 +4276,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room_accessory(</v>
@@ -4347,41 +4346,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -4651,10 +4650,10 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="212" t="s">
+      <c r="F32" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="213"/>
+      <c r="G32" s="219"/>
       <c r="H32" s="57" t="s">
         <v>50</v>
       </c>
@@ -4675,16 +4674,22 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="212" t="s">
+      <c r="F35" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="213"/>
+      <c r="G35" s="219"/>
       <c r="H35" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="D6:E6"/>
@@ -4693,12 +4698,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4739,69 +4738,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_guest(</v>
@@ -4809,41 +4808,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5175,10 +5174,10 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="212" t="s">
+      <c r="F35" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="213"/>
+      <c r="G35" s="219"/>
       <c r="H35" s="57" t="s">
         <v>50</v>
       </c>
@@ -5199,22 +5198,16 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="212" t="s">
+      <c r="F38" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="213"/>
+      <c r="G38" s="219"/>
       <c r="H38" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="D6:E6"/>
@@ -5223,6 +5216,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5263,69 +5262,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_reservation(</v>
@@ -5333,41 +5332,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5724,10 +5723,10 @@
         <v>42</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="212" t="s">
+      <c r="F36" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="213"/>
+      <c r="G36" s="219"/>
       <c r="H36" s="57" t="s">
         <v>50</v>
       </c>
@@ -5748,22 +5747,16 @@
         <v>42</v>
       </c>
       <c r="E39" s="56"/>
-      <c r="F39" s="212" t="s">
+      <c r="F39" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="213"/>
+      <c r="G39" s="219"/>
       <c r="H39" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D6:E6"/>
@@ -5772,6 +5765,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5813,69 +5812,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_reservation_detail(</v>
@@ -5883,41 +5882,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -6301,10 +6300,10 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="212" t="s">
+      <c r="F38" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="213"/>
+      <c r="G38" s="219"/>
       <c r="H38" s="57" t="s">
         <v>50</v>
       </c>
@@ -6325,22 +6324,16 @@
         <v>42</v>
       </c>
       <c r="E41" s="56"/>
-      <c r="F41" s="212" t="s">
+      <c r="F41" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="213"/>
+      <c r="G41" s="219"/>
       <c r="H41" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="D6:E6"/>
@@ -6349,6 +6342,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6390,69 +6389,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_payment_type(</v>
@@ -6460,41 +6459,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -6694,10 +6693,10 @@
         <v>42</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="212" t="s">
+      <c r="F28" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="213"/>
+      <c r="G28" s="219"/>
       <c r="H28" s="57" t="s">
         <v>50</v>
       </c>
@@ -6718,16 +6717,22 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="212" t="s">
+      <c r="F31" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="213"/>
+      <c r="G31" s="219"/>
       <c r="H31" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="D6:E6"/>
@@ -6736,12 +6741,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6751,7 +6750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -6782,69 +6781,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_invoice(</v>
@@ -6852,41 +6851,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -7226,10 +7225,10 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="212" t="s">
+      <c r="F35" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="213"/>
+      <c r="G35" s="219"/>
       <c r="H35" s="57" t="s">
         <v>50</v>
       </c>
@@ -7250,16 +7249,22 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="212" t="s">
+      <c r="F38" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="213"/>
+      <c r="G38" s="219"/>
       <c r="H38" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="D6:E6"/>
@@ -7268,12 +7273,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7314,69 +7313,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_invoice_detail(</v>
@@ -7384,41 +7383,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -7722,10 +7721,10 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="212" t="s">
+      <c r="F34" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="213"/>
+      <c r="G34" s="219"/>
       <c r="H34" s="57" t="s">
         <v>50</v>
       </c>
@@ -7746,16 +7745,22 @@
         <v>42</v>
       </c>
       <c r="E37" s="56"/>
-      <c r="F37" s="212" t="s">
+      <c r="F37" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="213"/>
+      <c r="G37" s="219"/>
       <c r="H37" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="D6:E6"/>
@@ -7764,12 +7769,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7810,69 +7809,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl__status(</v>
@@ -7880,41 +7879,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -8148,10 +8147,10 @@
         <v>42</v>
       </c>
       <c r="E30" s="56"/>
-      <c r="F30" s="212" t="s">
+      <c r="F30" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="213"/>
+      <c r="G30" s="219"/>
       <c r="H30" s="57" t="s">
         <v>50</v>
       </c>
@@ -8172,22 +8171,16 @@
         <v>42</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="212" t="s">
+      <c r="F33" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="213"/>
+      <c r="G33" s="219"/>
       <c r="H33" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -8196,6 +8189,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8239,73 +8238,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214" t="s">
+      <c r="D6" s="215" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_function(</v>
@@ -8313,41 +8312,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -8682,10 +8681,10 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="212" t="s">
+      <c r="F31" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="213"/>
+      <c r="G31" s="219"/>
       <c r="H31" s="57" t="s">
         <v>50</v>
       </c>
@@ -8706,22 +8705,16 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="212" t="s">
+      <c r="F34" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="213"/>
+      <c r="G34" s="219"/>
       <c r="H34" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -8730,6 +8723,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8774,73 +8773,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214" t="s">
+      <c r="D6" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_permission(</v>
@@ -8848,41 +8847,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -9222,10 +9221,10 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="212" t="s">
+      <c r="F31" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="213"/>
+      <c r="G31" s="219"/>
       <c r="H31" s="57" t="s">
         <v>50</v>
       </c>
@@ -9246,22 +9245,16 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="212" t="s">
+      <c r="F34" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="213"/>
+      <c r="G34" s="219"/>
       <c r="H34" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -9270,6 +9263,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9314,73 +9313,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214" t="s">
+      <c r="D6" s="215" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_group(</v>
@@ -9388,41 +9387,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -9707,10 +9706,10 @@
         <v>42</v>
       </c>
       <c r="E29" s="56"/>
-      <c r="F29" s="212" t="s">
+      <c r="F29" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="213"/>
+      <c r="G29" s="219"/>
       <c r="H29" s="57" t="s">
         <v>50</v>
       </c>
@@ -9731,22 +9730,16 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="212" t="s">
+      <c r="F32" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="213"/>
+      <c r="G32" s="219"/>
       <c r="H32" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D6:E6"/>
@@ -9755,6 +9748,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9799,73 +9798,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214" t="s">
+      <c r="D5" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214" t="s">
+      <c r="D6" s="215" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_user(</v>
@@ -9873,41 +9872,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -10384,10 +10383,10 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="212" t="s">
+      <c r="F38" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="213"/>
+      <c r="G38" s="219"/>
       <c r="H38" s="57" t="s">
         <v>50</v>
       </c>
@@ -10408,22 +10407,16 @@
         <v>42</v>
       </c>
       <c r="E41" s="56"/>
-      <c r="F41" s="212" t="s">
+      <c r="F41" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="213"/>
+      <c r="G41" s="219"/>
       <c r="H41" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="D6:E6"/>
@@ -10432,6 +10425,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10476,73 +10475,73 @@
       <c r="C3" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="241"/>
-      <c r="E3" s="242"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="229"/>
       <c r="F3" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="241" t="s">
+      <c r="G3" s="228" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="243"/>
+      <c r="H3" s="230"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="B4" s="82"/>
       <c r="C4" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="232"/>
       <c r="F4" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="B5" s="82"/>
       <c r="C5" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="230" t="s">
+      <c r="D5" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="231"/>
+      <c r="E5" s="232"/>
       <c r="F5" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="230"/>
-      <c r="H5" s="232"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="233"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="B6" s="82"/>
       <c r="C6" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="230" t="s">
+      <c r="D6" s="231" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="231"/>
+      <c r="E6" s="232"/>
       <c r="F6" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="230"/>
-      <c r="H6" s="232"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="233"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="B7" s="82"/>
       <c r="C7" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="230" t="s">
+      <c r="D7" s="231" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="231"/>
+      <c r="E7" s="232"/>
       <c r="F7" s="85"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="232"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="233"/>
       <c r="L7" s="76" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_user_group(</v>
@@ -10550,41 +10549,41 @@
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="B8" s="86"/>
-      <c r="C8" s="233" t="s">
+      <c r="C8" s="236" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="235"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="238"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="86"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="237"/>
-      <c r="F9" s="237"/>
-      <c r="G9" s="237"/>
-      <c r="H9" s="238"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="241"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="86"/>
-      <c r="C10" s="237"/>
-      <c r="D10" s="237"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="238"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="241"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" thickBot="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="240"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="242"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="243"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" thickBot="1">
       <c r="B13" s="77" t="s">
@@ -10897,10 +10896,10 @@
         <v>150</v>
       </c>
       <c r="E30" s="124"/>
-      <c r="F30" s="228" t="s">
+      <c r="F30" s="234" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="229"/>
+      <c r="G30" s="235"/>
       <c r="H30" s="125" t="s">
         <v>155</v>
       </c>
@@ -10921,22 +10920,16 @@
         <v>150</v>
       </c>
       <c r="E33" s="124"/>
-      <c r="F33" s="228" t="s">
+      <c r="F33" s="234" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="229"/>
+      <c r="G33" s="235"/>
       <c r="H33" s="125" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -10945,6 +10938,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10986,69 +10985,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="253"/>
-      <c r="E3" s="254"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="245"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="253" t="s">
+      <c r="G3" s="244" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="255"/>
+      <c r="H3" s="246"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="245"/>
-      <c r="E4" s="246"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="245" t="s">
+      <c r="G4" s="247" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="247"/>
+      <c r="H4" s="249"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="245"/>
-      <c r="E5" s="246"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="248"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="245"/>
-      <c r="H5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="249"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="245"/>
-      <c r="E6" s="246"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="248"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="245"/>
-      <c r="H6" s="247"/>
+      <c r="G6" s="247"/>
+      <c r="H6" s="249"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="245" t="s">
+      <c r="D7" s="247" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="246"/>
+      <c r="E7" s="248"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="249"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room_type(</v>
@@ -11056,41 +11055,41 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="11"/>
-      <c r="C8" s="248" t="s">
+      <c r="C8" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="248"/>
-      <c r="H8" s="249"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="252"/>
     </row>
     <row r="9" spans="2:12" ht="12" customHeight="1">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="250"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="253"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1">
       <c r="B10" s="11"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="250"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="253"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="252"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="255"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -11383,10 +11382,10 @@
         <v>42</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="212" t="s">
+      <c r="F33" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="244"/>
+      <c r="G33" s="250"/>
       <c r="H33" s="57" t="s">
         <v>50</v>
       </c>
@@ -11407,22 +11406,16 @@
         <v>42</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="212" t="s">
+      <c r="F36" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="244"/>
+      <c r="G36" s="250"/>
       <c r="H36" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="D6:E6"/>
@@ -11431,6 +11424,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11440,7 +11439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -11471,69 +11470,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="226"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="225" t="s">
+      <c r="G3" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="227"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="214" t="s">
+      <c r="G4" s="215" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="214"/>
-      <c r="E5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="217"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="214"/>
-      <c r="E6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="214"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="217"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="215" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="215"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="217"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room(</v>
@@ -11541,41 +11540,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="217" t="s">
+      <c r="C8" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="219"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="222"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="222"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="225"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="225"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="224"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="227"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -11851,10 +11850,10 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="212" t="s">
+      <c r="F32" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="213"/>
+      <c r="G32" s="219"/>
       <c r="H32" s="57" t="s">
         <v>50</v>
       </c>
@@ -11875,22 +11874,16 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="212" t="s">
+      <c r="F35" s="218" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="213"/>
+      <c r="G35" s="219"/>
       <c r="H35" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="D6:E6"/>
@@ -11899,6 +11892,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Database/DefineTable.xlsx
+++ b/Database/DefineTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="260">
   <si>
     <r>
       <rPr>
@@ -3400,6 +3400,90 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3412,15 +3496,12 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3463,94 +3544,10 @@
     <xf numFmtId="14" fontId="23" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="5" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3560,12 +3557,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3592,13 +3583,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3608,12 +3605,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3640,13 +3631,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3656,9 +3650,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3675,6 +3666,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4022,191 +4022,191 @@
   <sheetData>
     <row r="1" spans="2:53" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:53">
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="196" t="s">
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="173" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="199" t="s">
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="176" t="s">
         <v>169</v>
       </c>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202" t="s">
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="185"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="169" t="s">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="180"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="170"/>
-      <c r="AK2" s="170"/>
-      <c r="AL2" s="170"/>
-      <c r="AM2" s="170"/>
-      <c r="AN2" s="170"/>
-      <c r="AO2" s="203"/>
-      <c r="AP2" s="185" t="s">
+      <c r="AJ2" s="183"/>
+      <c r="AK2" s="183"/>
+      <c r="AL2" s="183"/>
+      <c r="AM2" s="183"/>
+      <c r="AN2" s="183"/>
+      <c r="AO2" s="184"/>
+      <c r="AP2" s="180" t="s">
         <v>164</v>
       </c>
-      <c r="AQ2" s="185"/>
-      <c r="AR2" s="185"/>
-      <c r="AS2" s="185"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="169">
+      <c r="AQ2" s="180"/>
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="181"/>
+      <c r="AU2" s="182">
         <v>42892</v>
       </c>
-      <c r="AV2" s="170"/>
-      <c r="AW2" s="170"/>
-      <c r="AX2" s="170"/>
-      <c r="AY2" s="170"/>
-      <c r="AZ2" s="170"/>
-      <c r="BA2" s="171"/>
+      <c r="AV2" s="183"/>
+      <c r="AW2" s="183"/>
+      <c r="AX2" s="183"/>
+      <c r="AY2" s="183"/>
+      <c r="AZ2" s="183"/>
+      <c r="BA2" s="198"/>
     </row>
     <row r="3" spans="2:53">
-      <c r="B3" s="190"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="172" t="s">
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="199" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="175" t="s">
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="178" t="s">
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
+      <c r="AA3" s="203"/>
+      <c r="AB3" s="204"/>
+      <c r="AC3" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="179"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="180"/>
-      <c r="AI3" s="181"/>
-      <c r="AJ3" s="182"/>
-      <c r="AK3" s="182"/>
-      <c r="AL3" s="182"/>
-      <c r="AM3" s="182"/>
-      <c r="AN3" s="182"/>
-      <c r="AO3" s="183"/>
-      <c r="AP3" s="179" t="s">
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="206"/>
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="208"/>
+      <c r="AJ3" s="209"/>
+      <c r="AK3" s="209"/>
+      <c r="AL3" s="209"/>
+      <c r="AM3" s="209"/>
+      <c r="AN3" s="209"/>
+      <c r="AO3" s="210"/>
+      <c r="AP3" s="206" t="s">
         <v>168</v>
       </c>
-      <c r="AQ3" s="179"/>
-      <c r="AR3" s="179"/>
-      <c r="AS3" s="179"/>
-      <c r="AT3" s="180"/>
-      <c r="AU3" s="181"/>
-      <c r="AV3" s="182"/>
-      <c r="AW3" s="182"/>
-      <c r="AX3" s="182"/>
-      <c r="AY3" s="182"/>
-      <c r="AZ3" s="182"/>
-      <c r="BA3" s="184"/>
+      <c r="AQ3" s="206"/>
+      <c r="AR3" s="206"/>
+      <c r="AS3" s="206"/>
+      <c r="AT3" s="207"/>
+      <c r="AU3" s="208"/>
+      <c r="AV3" s="209"/>
+      <c r="AW3" s="209"/>
+      <c r="AX3" s="209"/>
+      <c r="AY3" s="209"/>
+      <c r="AZ3" s="209"/>
+      <c r="BA3" s="211"/>
     </row>
     <row r="4" spans="2:53" ht="15.75" thickBot="1">
-      <c r="B4" s="193"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="207" t="str">
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+      <c r="L4" s="186"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="188" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>ERD</v>
       </c>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="208"/>
-      <c r="V4" s="208"/>
-      <c r="W4" s="208"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="208"/>
-      <c r="Z4" s="208"/>
-      <c r="AA4" s="208"/>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="210"/>
-      <c r="AD4" s="164"/>
-      <c r="AE4" s="164"/>
-      <c r="AF4" s="164"/>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="166"/>
-      <c r="AJ4" s="167"/>
-      <c r="AK4" s="167"/>
-      <c r="AL4" s="167"/>
-      <c r="AM4" s="167"/>
-      <c r="AN4" s="167"/>
-      <c r="AO4" s="211"/>
-      <c r="AP4" s="164"/>
-      <c r="AQ4" s="164"/>
-      <c r="AR4" s="164"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="165"/>
-      <c r="AU4" s="166"/>
-      <c r="AV4" s="167"/>
-      <c r="AW4" s="167"/>
-      <c r="AX4" s="167"/>
-      <c r="AY4" s="167"/>
-      <c r="AZ4" s="167"/>
-      <c r="BA4" s="168"/>
+      <c r="Q4" s="189"/>
+      <c r="R4" s="189"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="189"/>
+      <c r="U4" s="189"/>
+      <c r="V4" s="189"/>
+      <c r="W4" s="189"/>
+      <c r="X4" s="189"/>
+      <c r="Y4" s="189"/>
+      <c r="Z4" s="189"/>
+      <c r="AA4" s="189"/>
+      <c r="AB4" s="190"/>
+      <c r="AC4" s="191"/>
+      <c r="AD4" s="192"/>
+      <c r="AE4" s="192"/>
+      <c r="AF4" s="192"/>
+      <c r="AG4" s="192"/>
+      <c r="AH4" s="193"/>
+      <c r="AI4" s="194"/>
+      <c r="AJ4" s="195"/>
+      <c r="AK4" s="195"/>
+      <c r="AL4" s="195"/>
+      <c r="AM4" s="195"/>
+      <c r="AN4" s="195"/>
+      <c r="AO4" s="196"/>
+      <c r="AP4" s="192"/>
+      <c r="AQ4" s="192"/>
+      <c r="AR4" s="192"/>
+      <c r="AS4" s="192"/>
+      <c r="AT4" s="193"/>
+      <c r="AU4" s="194"/>
+      <c r="AV4" s="195"/>
+      <c r="AW4" s="195"/>
+      <c r="AX4" s="195"/>
+      <c r="AY4" s="195"/>
+      <c r="AZ4" s="195"/>
+      <c r="BA4" s="197"/>
     </row>
     <row r="7" spans="2:53">
       <c r="B7" t="s">
@@ -4215,15 +4215,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:H4"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AT4"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="AU2:BA2"/>
@@ -4234,6 +4225,15 @@
     <mergeCell ref="AP3:AT3"/>
     <mergeCell ref="AU3:BA3"/>
     <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
@@ -4276,69 +4276,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room_accessory(</v>
@@ -4346,41 +4346,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -4650,10 +4650,10 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="218" t="s">
+      <c r="F32" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="219"/>
+      <c r="G32" s="213"/>
       <c r="H32" s="57" t="s">
         <v>50</v>
       </c>
@@ -4674,22 +4674,16 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="219"/>
+      <c r="G35" s="213"/>
       <c r="H35" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="D6:E6"/>
@@ -4698,6 +4692,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4738,69 +4738,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_guest(</v>
@@ -4808,41 +4808,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5174,10 +5174,10 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="219"/>
+      <c r="G35" s="213"/>
       <c r="H35" s="57" t="s">
         <v>50</v>
       </c>
@@ -5198,16 +5198,22 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="218" t="s">
+      <c r="F38" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="219"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="D6:E6"/>
@@ -5216,12 +5222,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5262,69 +5262,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_reservation(</v>
@@ -5332,41 +5332,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -5723,10 +5723,10 @@
         <v>42</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="218" t="s">
+      <c r="F36" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="219"/>
+      <c r="G36" s="213"/>
       <c r="H36" s="57" t="s">
         <v>50</v>
       </c>
@@ -5747,16 +5747,22 @@
         <v>42</v>
       </c>
       <c r="E39" s="56"/>
-      <c r="F39" s="218" t="s">
+      <c r="F39" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="219"/>
+      <c r="G39" s="213"/>
       <c r="H39" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D6:E6"/>
@@ -5765,12 +5771,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5812,69 +5812,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_reservation_detail(</v>
@@ -5882,41 +5882,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -6300,10 +6300,10 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="218" t="s">
+      <c r="F38" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="219"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="57" t="s">
         <v>50</v>
       </c>
@@ -6324,16 +6324,22 @@
         <v>42</v>
       </c>
       <c r="E41" s="56"/>
-      <c r="F41" s="218" t="s">
+      <c r="F41" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="219"/>
+      <c r="G41" s="213"/>
       <c r="H41" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="D6:E6"/>
@@ -6342,12 +6348,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6389,69 +6389,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_payment_type(</v>
@@ -6459,41 +6459,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -6693,10 +6693,10 @@
         <v>42</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="218" t="s">
+      <c r="F28" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="219"/>
+      <c r="G28" s="213"/>
       <c r="H28" s="57" t="s">
         <v>50</v>
       </c>
@@ -6717,22 +6717,16 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="218" t="s">
+      <c r="F31" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="219"/>
+      <c r="G31" s="213"/>
       <c r="H31" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="D6:E6"/>
@@ -6741,6 +6735,12 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6748,10 +6748,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L38"/>
+  <dimension ref="B2:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -6781,69 +6781,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_invoice(</v>
@@ -6851,41 +6851,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -6935,7 +6935,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="20"/>
       <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15:L25" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <f t="shared" ref="L15:L23" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
         <v xml:space="preserve">    id serial PRIMARY KEY NOT NULL,</v>
       </c>
     </row>
@@ -7031,10 +7031,10 @@
       </c>
       <c r="C20" s="156"/>
       <c r="D20" s="156" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E20" s="156" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="F20" s="159"/>
       <c r="G20" s="157"/>
@@ -7042,7 +7042,7 @@
       <c r="I20" s="20"/>
       <c r="L20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    amount_total integer,</v>
+        <v xml:space="preserve">    update_ymd timestamp,</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1">
@@ -7051,10 +7051,10 @@
       </c>
       <c r="C21" s="156"/>
       <c r="D21" s="156" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E21" s="156" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F21" s="159"/>
       <c r="G21" s="157"/>
@@ -7062,7 +7062,7 @@
       <c r="I21" s="20"/>
       <c r="L21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    payment_flag integer,</v>
+        <v xml:space="preserve">    updater_nm varchar(50),</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="15" customHeight="1">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="C22" s="156"/>
       <c r="D22" s="156" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="E22" s="156" t="s">
         <v>235</v>
@@ -7082,68 +7082,50 @@
       <c r="I22" s="20"/>
       <c r="L22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    update_ymd timestamp,</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15" customHeight="1">
+        <v xml:space="preserve">    create_ymd timestamp,</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15" customHeight="1" thickBot="1">
       <c r="B23" s="15">
         <v>9</v>
       </c>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156" t="s">
-        <v>256</v>
-      </c>
-      <c r="E23" s="156" t="s">
+      <c r="C23" s="147"/>
+      <c r="D23" s="147" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="159"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="158"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="149"/>
       <c r="I23" s="20"/>
       <c r="L23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    updater_nm varchar(50),</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15" customHeight="1">
-      <c r="B24" s="15">
-        <v>10</v>
-      </c>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="156" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24" s="159"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="20"/>
+        <v xml:space="preserve">    creater_nm varchar(50),</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
       <c r="L24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    create_ymd timestamp,</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B25" s="15">
-        <v>11</v>
-      </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147" t="s">
-        <v>249</v>
-      </c>
-      <c r="E25" s="147" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="20"/>
-      <c r="L25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    creater_nm varchar(50),</v>
-      </c>
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
     </row>
     <row r="26" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="133"/>
@@ -7153,126 +7135,104 @@
       <c r="F26" s="134"/>
       <c r="G26" s="136"/>
       <c r="H26" s="136"/>
-      <c r="L26" s="3" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
     </row>
     <row r="27" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
       <c r="B27" s="133"/>
       <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
+      <c r="D27" s="135"/>
       <c r="E27" s="134"/>
       <c r="F27" s="134"/>
       <c r="G27" s="136"/>
       <c r="H27" s="136"/>
     </row>
-    <row r="28" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B28" s="133"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-    </row>
-    <row r="29" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B29" s="133"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-    </row>
-    <row r="31" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B31" s="1" t="s">
+    <row r="29" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="30" spans="2:12" ht="12.75" thickBot="1">
+      <c r="B30" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="140"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="32" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" thickBot="1">
+      <c r="B33" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="151" t="s">
+      <c r="C33" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="140"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15" thickBot="1">
-      <c r="B35" s="53" t="s">
+      <c r="E33" s="56"/>
+      <c r="F33" s="212" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="213"/>
+      <c r="H33" s="57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" thickBot="1">
+      <c r="B36" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C36" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="151" t="s">
+      <c r="D36" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="218" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="219"/>
-      <c r="H35" s="57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B37" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="15" thickBot="1">
-      <c r="B38" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="151" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="218" t="s">
+      <c r="E36" s="56"/>
+      <c r="F36" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="219"/>
-      <c r="H38" s="57" t="s">
+      <c r="G36" s="213"/>
+      <c r="H36" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7280,10 +7240,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L37"/>
+  <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -7313,69 +7273,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_invoice_detail(</v>
@@ -7383,41 +7343,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -7467,7 +7427,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="20"/>
       <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15:L24" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
+        <f t="shared" ref="L15:L28" si="0">"    "&amp;D15&amp;" "&amp;E15 &amp; IF(F15="Yes(PK)"," PRIMARY KEY NOT NULL,",IF(F15="Yes", "  NOT NULL,", ","))</f>
         <v xml:space="preserve">    id serial PRIMARY KEY NOT NULL,</v>
       </c>
     </row>
@@ -7607,168 +7567,232 @@
       </c>
       <c r="C23" s="156"/>
       <c r="D23" s="156" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="156" t="s">
-        <v>235</v>
+        <v>173</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="F23" s="159"/>
       <c r="G23" s="157"/>
       <c r="H23" s="158"/>
       <c r="I23" s="20"/>
-      <c r="L23" s="3" t="str">
+    </row>
+    <row r="24" spans="2:12" ht="15" customHeight="1">
+      <c r="B24" s="15">
+        <v>10</v>
+      </c>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="159"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="2:12" ht="15" customHeight="1">
+      <c r="B25" s="15">
+        <v>11</v>
+      </c>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156" t="s">
+        <v>249</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="159"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="2:12" ht="15" customHeight="1">
+      <c r="B26" s="15">
+        <v>12</v>
+      </c>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="159"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="2:12" ht="15" customHeight="1">
+      <c r="B27" s="15">
+        <v>13</v>
+      </c>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="156" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="159"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="20"/>
+      <c r="L27" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    update_ymd timestamp,</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15" customHeight="1" thickBot="1">
-      <c r="B24" s="15">
-        <v>10</v>
-      </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147" t="s">
+    <row r="28" spans="2:12" ht="15" customHeight="1" thickBot="1">
+      <c r="B28" s="15">
+        <v>14</v>
+      </c>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147" t="s">
         <v>203</v>
       </c>
-      <c r="E24" s="147" t="s">
+      <c r="E28" s="147" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="160"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="20"/>
-      <c r="L24" s="3" t="str">
+      <c r="F28" s="160"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="20"/>
+      <c r="L28" s="3" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    create_ymd timestamp,</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="L25" s="3" t="str">
+    <row r="29" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="L29" s="3" t="str">
         <f>");"</f>
         <v>);</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-    </row>
-    <row r="27" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B27" s="133"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-    </row>
-    <row r="28" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="B28" s="133"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-    </row>
-    <row r="30" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+    </row>
+    <row r="31" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+    </row>
+    <row r="32" spans="2:12" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+    </row>
+    <row r="34" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="12.75" thickBot="1">
-      <c r="B31" s="53" t="s">
+    <row r="35" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B35" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C35" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="151" t="s">
+      <c r="D35" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="140"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="54" t="s">
+      <c r="E35" s="140"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="57" t="s">
+      <c r="H35" s="57" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B33" s="1" t="s">
+    <row r="37" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="15" thickBot="1">
-      <c r="B34" s="53" t="s">
+    <row r="38" spans="2:8" ht="15" thickBot="1">
+      <c r="B38" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C38" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="151" t="s">
+      <c r="D38" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="218" t="s">
+      <c r="E38" s="56"/>
+      <c r="F38" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="219"/>
-      <c r="H34" s="57" t="s">
+      <c r="G38" s="213"/>
+      <c r="H38" s="57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="12.75" thickBot="1">
-      <c r="B36" s="1" t="s">
+    <row r="40" spans="2:8" ht="12.75" thickBot="1">
+      <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15" thickBot="1">
-      <c r="B37" s="53" t="s">
+    <row r="41" spans="2:8" ht="15" thickBot="1">
+      <c r="B41" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C41" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="151" t="s">
+      <c r="D41" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="218" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="219"/>
-      <c r="H37" s="57" t="s">
+      <c r="G41" s="213"/>
+      <c r="H41" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H11"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7809,69 +7833,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl__status(</v>
@@ -7879,41 +7903,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -8147,10 +8171,10 @@
         <v>42</v>
       </c>
       <c r="E30" s="56"/>
-      <c r="F30" s="218" t="s">
+      <c r="F30" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="219"/>
+      <c r="G30" s="213"/>
       <c r="H30" s="57" t="s">
         <v>50</v>
       </c>
@@ -8171,16 +8195,22 @@
         <v>42</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="218" t="s">
+      <c r="F33" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="219"/>
+      <c r="G33" s="213"/>
       <c r="H33" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -8189,12 +8219,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8238,73 +8262,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="216"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="214" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="216"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>193</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_function(</v>
@@ -8312,41 +8336,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -8681,10 +8705,10 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="218" t="s">
+      <c r="F31" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="219"/>
+      <c r="G31" s="213"/>
       <c r="H31" s="57" t="s">
         <v>50</v>
       </c>
@@ -8705,16 +8729,22 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="218" t="s">
+      <c r="F34" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="219"/>
+      <c r="G34" s="213"/>
       <c r="H34" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -8723,12 +8753,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8773,73 +8797,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="216"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="216"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_permission(</v>
@@ -8847,41 +8871,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -9221,10 +9245,10 @@
         <v>42</v>
       </c>
       <c r="E31" s="56"/>
-      <c r="F31" s="218" t="s">
+      <c r="F31" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="219"/>
+      <c r="G31" s="213"/>
       <c r="H31" s="57" t="s">
         <v>50</v>
       </c>
@@ -9245,16 +9269,22 @@
         <v>42</v>
       </c>
       <c r="E34" s="56"/>
-      <c r="F34" s="218" t="s">
+      <c r="F34" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="219"/>
+      <c r="G34" s="213"/>
       <c r="H34" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D6:E6"/>
@@ -9263,12 +9293,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9313,73 +9337,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="216"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="214" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="216"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_group(</v>
@@ -9387,41 +9411,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -9706,10 +9730,10 @@
         <v>42</v>
       </c>
       <c r="E29" s="56"/>
-      <c r="F29" s="218" t="s">
+      <c r="F29" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="219"/>
+      <c r="G29" s="213"/>
       <c r="H29" s="57" t="s">
         <v>50</v>
       </c>
@@ -9730,16 +9754,22 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="218" t="s">
+      <c r="F32" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="219"/>
+      <c r="G32" s="213"/>
       <c r="H32" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="D6:E6"/>
@@ -9748,12 +9778,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9798,73 +9822,73 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="216"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215" t="s">
+      <c r="D6" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="216"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>190</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_user(</v>
@@ -9872,41 +9896,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -10383,10 +10407,10 @@
         <v>42</v>
       </c>
       <c r="E38" s="56"/>
-      <c r="F38" s="218" t="s">
+      <c r="F38" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="219"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="57" t="s">
         <v>50</v>
       </c>
@@ -10407,16 +10431,22 @@
         <v>42</v>
       </c>
       <c r="E41" s="56"/>
-      <c r="F41" s="218" t="s">
+      <c r="F41" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="219"/>
+      <c r="G41" s="213"/>
       <c r="H41" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="D6:E6"/>
@@ -10425,12 +10455,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10475,73 +10499,73 @@
       <c r="C3" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="228"/>
-      <c r="E3" s="229"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="242"/>
       <c r="F3" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="228" t="s">
+      <c r="G3" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="230"/>
+      <c r="H3" s="243"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="B4" s="82"/>
       <c r="C4" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="231"/>
-      <c r="E4" s="232"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="231"/>
       <c r="F4" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="B5" s="82"/>
       <c r="C5" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="231" t="s">
+      <c r="D5" s="230" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="232"/>
+      <c r="E5" s="231"/>
       <c r="F5" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="231"/>
-      <c r="H5" s="233"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="232"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="B6" s="82"/>
       <c r="C6" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="231" t="s">
+      <c r="D6" s="230" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="232"/>
+      <c r="E6" s="231"/>
       <c r="F6" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="231"/>
-      <c r="H6" s="233"/>
+      <c r="G6" s="230"/>
+      <c r="H6" s="232"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="B7" s="82"/>
       <c r="C7" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="231" t="s">
+      <c r="D7" s="230" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="232"/>
+      <c r="E7" s="231"/>
       <c r="F7" s="85"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="233"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="232"/>
       <c r="L7" s="76" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_user_group(</v>
@@ -10549,41 +10573,41 @@
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="B8" s="86"/>
-      <c r="C8" s="236" t="s">
+      <c r="C8" s="233" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="238"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="235"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="86"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="241"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="238"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="86"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="241"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="238"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" thickBot="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="242"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="243"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="240"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" thickBot="1">
       <c r="B13" s="77" t="s">
@@ -10896,10 +10920,10 @@
         <v>150</v>
       </c>
       <c r="E30" s="124"/>
-      <c r="F30" s="234" t="s">
+      <c r="F30" s="228" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="235"/>
+      <c r="G30" s="229"/>
       <c r="H30" s="125" t="s">
         <v>155</v>
       </c>
@@ -10920,16 +10944,22 @@
         <v>150</v>
       </c>
       <c r="E33" s="124"/>
-      <c r="F33" s="234" t="s">
+      <c r="F33" s="228" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="235"/>
+      <c r="G33" s="229"/>
       <c r="H33" s="125" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D6:E6"/>
@@ -10938,12 +10968,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10954,8 +10978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D18:F23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12"/>
@@ -10985,69 +11009,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="244"/>
-      <c r="E3" s="245"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="254"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="244" t="s">
+      <c r="G3" s="253" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="246"/>
+      <c r="H3" s="255"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="246"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="247" t="s">
+      <c r="G4" s="245" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="249"/>
+      <c r="H4" s="247"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="247"/>
-      <c r="E5" s="248"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="246"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="247"/>
-      <c r="H5" s="249"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="247"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="247"/>
-      <c r="E6" s="248"/>
+      <c r="D6" s="245"/>
+      <c r="E6" s="246"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="247"/>
-      <c r="H6" s="249"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="247"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="247" t="s">
+      <c r="D7" s="245" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="248"/>
+      <c r="E7" s="246"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="249"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="247"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room_type(</v>
@@ -11055,41 +11079,41 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="11"/>
-      <c r="C8" s="251" t="s">
+      <c r="C8" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="252"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="249"/>
     </row>
     <row r="9" spans="2:12" ht="12" customHeight="1">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="253"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="250"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1">
       <c r="B10" s="11"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="253"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="220"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="250"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" customHeight="1" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="254"/>
-      <c r="D11" s="254"/>
-      <c r="E11" s="254"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="255"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="252"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -11382,10 +11406,10 @@
         <v>42</v>
       </c>
       <c r="E33" s="56"/>
-      <c r="F33" s="218" t="s">
+      <c r="F33" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="250"/>
+      <c r="G33" s="244"/>
       <c r="H33" s="57" t="s">
         <v>50</v>
       </c>
@@ -11406,16 +11430,22 @@
         <v>42</v>
       </c>
       <c r="E36" s="56"/>
-      <c r="F36" s="218" t="s">
+      <c r="F36" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="250"/>
+      <c r="G36" s="244"/>
       <c r="H36" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="D6:E6"/>
@@ -11424,12 +11454,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11439,7 +11463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -11470,69 +11494,69 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="225" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="214"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="2:12" ht="14.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="216"/>
     </row>
     <row r="5" spans="2:12" ht="14.25">
       <c r="B5" s="7"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="215"/>
-      <c r="H5" s="217"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
     </row>
     <row r="6" spans="2:12" ht="14.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="215"/>
-      <c r="H6" s="217"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="216"/>
     </row>
     <row r="7" spans="2:12" ht="14.25">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="215" t="s">
+      <c r="D7" s="214" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="216"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="217"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="216"/>
       <c r="L7" s="3" t="str">
         <f>"CREATE TABLE "&amp;D7&amp;"("</f>
         <v>CREATE TABLE tbl_room(</v>
@@ -11540,41 +11564,41 @@
     </row>
     <row r="8" spans="2:12" ht="14.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="220" t="s">
+      <c r="C8" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="219"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="11"/>
-      <c r="C9" s="223"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="225"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="222"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="11"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="224"/>
-      <c r="H10" s="225"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="222"/>
     </row>
     <row r="11" spans="2:12" ht="12.75" thickBot="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="227"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="224"/>
     </row>
     <row r="13" spans="2:12" ht="12.75" thickBot="1">
       <c r="B13" s="1" t="s">
@@ -11850,10 +11874,10 @@
         <v>42</v>
       </c>
       <c r="E32" s="56"/>
-      <c r="F32" s="218" t="s">
+      <c r="F32" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="219"/>
+      <c r="G32" s="213"/>
       <c r="H32" s="57" t="s">
         <v>50</v>
       </c>
@@ -11874,16 +11898,22 @@
         <v>42</v>
       </c>
       <c r="E35" s="56"/>
-      <c r="F35" s="218" t="s">
+      <c r="F35" s="212" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="219"/>
+      <c r="G35" s="213"/>
       <c r="H35" s="57" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="D6:E6"/>
@@ -11892,12 +11922,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
